--- a/ampl-data-input-excel/32-PM-SA-multi/32-PM-SA-multi.xlsx
+++ b/ampl-data-input-excel/32-PM-SA-multi/32-PM-SA-multi.xlsx
@@ -26,6 +26,7 @@
     <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
     <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
     <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="eimg" sheetId="19" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -263,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="265">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -1055,6 +1056,9 @@
   </si>
   <si>
     <t xml:space="preserve">o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experts per day stacked</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1572,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="E73:F157 C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1769,7 +1773,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E73" activeCellId="0" sqref="E73:F157"/>
+      <selection pane="topLeft" activeCell="E73" activeCellId="0" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2084,7 +2088,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A14) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B14) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2106,7 +2110,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A15) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B15) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2128,7 +2132,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A16) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B16) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2150,7 +2154,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A17) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B17) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2172,7 +2176,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A18) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B18) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2194,7 +2198,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A19) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B19) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2216,7 +2220,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A20) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B20) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2238,7 +2242,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A21) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B21) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2260,7 +2264,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A22) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B22) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2282,7 +2286,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A23) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B23) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2304,7 +2308,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A24) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B24) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2326,7 +2330,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A25) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B25) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2348,7 +2352,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A26) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B26) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2370,7 +2374,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A27) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B27) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2392,7 +2396,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A28) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B28) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2414,7 +2418,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A29) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B29) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2436,7 +2440,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A30) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B30) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2458,7 +2462,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A31) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B31) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2480,7 +2484,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A32) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="F32" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B32) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2502,7 +2506,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A33) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B33) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2524,7 +2528,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A34) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="F34" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B34) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2546,7 +2550,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A35) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B35) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2568,7 +2572,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A36) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="F36" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B36) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2590,7 +2594,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A37) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F37" s="2" t="n">
+      <c r="F37" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B37) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2612,7 +2616,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A38) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="F38" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B38) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2634,7 +2638,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A39) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="F39" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B39) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2656,7 +2660,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A40) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="F40" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B40) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2678,7 +2682,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A41) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="F41" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B41) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2700,7 +2704,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A42) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="F42" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B42) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2722,7 +2726,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A43) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F43" s="2" t="n">
+      <c r="F43" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B43) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2744,7 +2748,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A44) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F44" s="2" t="n">
+      <c r="F44" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B44) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2766,7 +2770,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A45) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F45" s="2" t="n">
+      <c r="F45" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B45) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2788,7 +2792,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A46) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F46" s="2" t="n">
+      <c r="F46" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B46) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2810,7 +2814,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A47) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F47" s="2" t="n">
+      <c r="F47" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B47) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2832,7 +2836,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A48) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F48" s="2" t="n">
+      <c r="F48" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B48) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2854,7 +2858,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A49) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F49" s="2" t="n">
+      <c r="F49" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B49) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2876,7 +2880,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A50) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F50" s="2" t="n">
+      <c r="F50" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B50) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2898,7 +2902,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A51) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F51" s="2" t="n">
+      <c r="F51" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B51) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2920,7 +2924,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A52) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F52" s="2" t="n">
+      <c r="F52" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B52) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2942,7 +2946,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A53) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F53" s="2" t="n">
+      <c r="F53" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B53) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2964,7 +2968,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A54) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F54" s="2" t="n">
+      <c r="F54" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B54) &gt; 0</f>
         <v>1</v>
       </c>
@@ -2986,7 +2990,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A55) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F55" s="2" t="n">
+      <c r="F55" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B55) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3008,7 +3012,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A56) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F56" s="2" t="n">
+      <c r="F56" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B56) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3030,7 +3034,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A57) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F57" s="2" t="n">
+      <c r="F57" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B57) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3052,7 +3056,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A58) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F58" s="2" t="n">
+      <c r="F58" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B58) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3074,7 +3078,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A59) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F59" s="2" t="n">
+      <c r="F59" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B59) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3096,7 +3100,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A60) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F60" s="2" t="n">
+      <c r="F60" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B60) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3118,7 +3122,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A61) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F61" s="2" t="n">
+      <c r="F61" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B61) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3140,7 +3144,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A62) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F62" s="2" t="n">
+      <c r="F62" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B62) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3162,7 +3166,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A63) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F63" s="2" t="n">
+      <c r="F63" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B63) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3184,7 +3188,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A64) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F64" s="2" t="n">
+      <c r="F64" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B64) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3206,7 +3210,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A65) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F65" s="2" t="n">
+      <c r="F65" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B65) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3228,7 +3232,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A66) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F66" s="2" t="n">
+      <c r="F66" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B66) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3250,7 +3254,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A67) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F67" s="2" t="n">
+      <c r="F67" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B67) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3272,7 +3276,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A68) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F68" s="2" t="n">
+      <c r="F68" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B68) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3294,7 +3298,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A69) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F69" s="2" t="n">
+      <c r="F69" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B69) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3316,7 +3320,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A70) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F70" s="2" t="n">
+      <c r="F70" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B70) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3338,7 +3342,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A71) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F71" s="2" t="n">
+      <c r="F71" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B71) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3360,7 +3364,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A72) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F72" s="2" t="n">
+      <c r="F72" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B72) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3382,7 +3386,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A73) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F73" s="2" t="n">
+      <c r="F73" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B73) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3400,11 +3404,11 @@
       <c r="D74" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E74" s="2" t="n">
+      <c r="E74" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A74) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F74" s="2" t="n">
+      <c r="F74" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B74) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3422,11 +3426,11 @@
       <c r="D75" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E75" s="2" t="n">
+      <c r="E75" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A75) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F75" s="2" t="n">
+      <c r="F75" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B75) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3444,11 +3448,11 @@
       <c r="D76" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E76" s="2" t="n">
+      <c r="E76" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A76) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F76" s="2" t="n">
+      <c r="F76" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B76) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3466,11 +3470,11 @@
       <c r="D77" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E77" s="2" t="n">
+      <c r="E77" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A77) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F77" s="2" t="n">
+      <c r="F77" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B77) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3488,11 +3492,11 @@
       <c r="D78" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E78" s="2" t="n">
+      <c r="E78" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A78) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F78" s="2" t="n">
+      <c r="F78" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B78) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3510,11 +3514,11 @@
       <c r="D79" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E79" s="2" t="n">
+      <c r="E79" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A79) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F79" s="2" t="n">
+      <c r="F79" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B79) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3532,11 +3536,11 @@
       <c r="D80" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E80" s="2" t="n">
+      <c r="E80" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A80) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F80" s="2" t="n">
+      <c r="F80" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B80) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3554,11 +3558,11 @@
       <c r="D81" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E81" s="2" t="n">
+      <c r="E81" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A81) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F81" s="2" t="n">
+      <c r="F81" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B81) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3576,11 +3580,11 @@
       <c r="D82" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E82" s="2" t="n">
+      <c r="E82" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A82) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F82" s="2" t="n">
+      <c r="F82" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B82) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3598,11 +3602,11 @@
       <c r="D83" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E83" s="2" t="n">
+      <c r="E83" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A83) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F83" s="2" t="n">
+      <c r="F83" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B83) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3620,11 +3624,11 @@
       <c r="D84" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E84" s="2" t="n">
+      <c r="E84" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A84) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F84" s="2" t="n">
+      <c r="F84" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B84) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3642,11 +3646,11 @@
       <c r="D85" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E85" s="2" t="n">
+      <c r="E85" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A85) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F85" s="2" t="n">
+      <c r="F85" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B85) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3664,11 +3668,11 @@
       <c r="D86" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E86" s="2" t="n">
+      <c r="E86" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A86) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F86" s="2" t="n">
+      <c r="F86" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B86) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3686,11 +3690,11 @@
       <c r="D87" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E87" s="2" t="n">
+      <c r="E87" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A87) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F87" s="2" t="n">
+      <c r="F87" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B87) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3708,11 +3712,11 @@
       <c r="D88" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E88" s="2" t="n">
+      <c r="E88" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A88) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F88" s="2" t="n">
+      <c r="F88" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B88) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3730,11 +3734,11 @@
       <c r="D89" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E89" s="2" t="n">
+      <c r="E89" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A89) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F89" s="2" t="n">
+      <c r="F89" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B89) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3752,11 +3756,11 @@
       <c r="D90" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E90" s="2" t="n">
+      <c r="E90" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A90) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F90" s="2" t="n">
+      <c r="F90" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B90) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3774,11 +3778,11 @@
       <c r="D91" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E91" s="2" t="n">
+      <c r="E91" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A91) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F91" s="2" t="n">
+      <c r="F91" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B91) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3796,11 +3800,11 @@
       <c r="D92" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E92" s="2" t="n">
+      <c r="E92" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A92) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F92" s="2" t="n">
+      <c r="F92" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B92) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3818,11 +3822,11 @@
       <c r="D93" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E93" s="2" t="n">
+      <c r="E93" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A93) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F93" s="2" t="n">
+      <c r="F93" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B93) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3840,11 +3844,11 @@
       <c r="D94" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E94" s="2" t="n">
+      <c r="E94" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A94) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F94" s="2" t="n">
+      <c r="F94" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B94) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3862,11 +3866,11 @@
       <c r="D95" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E95" s="2" t="n">
+      <c r="E95" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A95) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F95" s="2" t="n">
+      <c r="F95" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B95) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3884,11 +3888,11 @@
       <c r="D96" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E96" s="2" t="n">
+      <c r="E96" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A96) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F96" s="2" t="n">
+      <c r="F96" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B96) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3906,11 +3910,11 @@
       <c r="D97" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E97" s="2" t="n">
+      <c r="E97" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A97) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F97" s="2" t="n">
+      <c r="F97" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B97) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3928,11 +3932,11 @@
       <c r="D98" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E98" s="2" t="n">
+      <c r="E98" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A98) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F98" s="2" t="n">
+      <c r="F98" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B98) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3950,11 +3954,11 @@
       <c r="D99" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E99" s="2" t="n">
+      <c r="E99" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A99) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F99" s="2" t="n">
+      <c r="F99" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B99) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3972,11 +3976,11 @@
       <c r="D100" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E100" s="2" t="n">
+      <c r="E100" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A100) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F100" s="2" t="n">
+      <c r="F100" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B100) &gt; 0</f>
         <v>1</v>
       </c>
@@ -3994,11 +3998,11 @@
       <c r="D101" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E101" s="2" t="n">
+      <c r="E101" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A101) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F101" s="2" t="n">
+      <c r="F101" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B101) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4016,11 +4020,11 @@
       <c r="D102" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E102" s="2" t="n">
+      <c r="E102" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A102) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F102" s="2" t="n">
+      <c r="F102" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B102) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4038,11 +4042,11 @@
       <c r="D103" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E103" s="2" t="n">
+      <c r="E103" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A103) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F103" s="2" t="n">
+      <c r="F103" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B103) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4060,11 +4064,11 @@
       <c r="D104" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E104" s="2" t="n">
+      <c r="E104" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A104) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F104" s="2" t="n">
+      <c r="F104" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B104) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4082,11 +4086,11 @@
       <c r="D105" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E105" s="2" t="n">
+      <c r="E105" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A105) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F105" s="2" t="n">
+      <c r="F105" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B105) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4104,11 +4108,11 @@
       <c r="D106" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E106" s="2" t="n">
+      <c r="E106" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A106) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F106" s="2" t="n">
+      <c r="F106" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B106) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4126,11 +4130,11 @@
       <c r="D107" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E107" s="2" t="n">
+      <c r="E107" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A107) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F107" s="2" t="n">
+      <c r="F107" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B107) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4148,11 +4152,11 @@
       <c r="D108" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E108" s="2" t="n">
+      <c r="E108" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A108) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F108" s="2" t="n">
+      <c r="F108" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B108) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4170,11 +4174,11 @@
       <c r="D109" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E109" s="2" t="n">
+      <c r="E109" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A109) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F109" s="2" t="n">
+      <c r="F109" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B109) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4192,11 +4196,11 @@
       <c r="D110" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E110" s="2" t="n">
+      <c r="E110" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A110) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F110" s="2" t="n">
+      <c r="F110" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B110) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4214,11 +4218,11 @@
       <c r="D111" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E111" s="2" t="n">
+      <c r="E111" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A111) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F111" s="2" t="n">
+      <c r="F111" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B111) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4236,11 +4240,11 @@
       <c r="D112" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E112" s="2" t="n">
+      <c r="E112" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A112) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F112" s="2" t="n">
+      <c r="F112" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B112) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4258,11 +4262,11 @@
       <c r="D113" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E113" s="2" t="n">
+      <c r="E113" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A113) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F113" s="2" t="n">
+      <c r="F113" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B113) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4280,11 +4284,11 @@
       <c r="D114" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E114" s="2" t="n">
+      <c r="E114" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A114) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F114" s="2" t="n">
+      <c r="F114" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B114) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4302,11 +4306,11 @@
       <c r="D115" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E115" s="2" t="n">
+      <c r="E115" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A115) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F115" s="2" t="n">
+      <c r="F115" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B115) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4324,11 +4328,11 @@
       <c r="D116" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E116" s="2" t="n">
+      <c r="E116" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A116) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F116" s="2" t="n">
+      <c r="F116" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B116) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4346,11 +4350,11 @@
       <c r="D117" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E117" s="2" t="n">
+      <c r="E117" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A117) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F117" s="2" t="n">
+      <c r="F117" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B117) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4368,11 +4372,11 @@
       <c r="D118" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E118" s="2" t="n">
+      <c r="E118" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A118) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F118" s="2" t="n">
+      <c r="F118" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B118) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4390,11 +4394,11 @@
       <c r="D119" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E119" s="2" t="n">
+      <c r="E119" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A119) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F119" s="2" t="n">
+      <c r="F119" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B119) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4412,11 +4416,11 @@
       <c r="D120" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E120" s="2" t="n">
+      <c r="E120" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A120) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F120" s="2" t="n">
+      <c r="F120" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B120) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4434,11 +4438,11 @@
       <c r="D121" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E121" s="2" t="n">
+      <c r="E121" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A121) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F121" s="2" t="n">
+      <c r="F121" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B121) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4456,11 +4460,11 @@
       <c r="D122" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E122" s="2" t="n">
+      <c r="E122" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A122) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F122" s="2" t="n">
+      <c r="F122" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B122) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4478,11 +4482,11 @@
       <c r="D123" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E123" s="2" t="n">
+      <c r="E123" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A123) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F123" s="2" t="n">
+      <c r="F123" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B123) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4500,11 +4504,11 @@
       <c r="D124" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E124" s="2" t="n">
+      <c r="E124" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A124) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F124" s="2" t="n">
+      <c r="F124" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B124) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4522,11 +4526,11 @@
       <c r="D125" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E125" s="2" t="n">
+      <c r="E125" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A125) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F125" s="2" t="n">
+      <c r="F125" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B125) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4544,11 +4548,11 @@
       <c r="D126" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E126" s="2" t="n">
+      <c r="E126" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A126) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F126" s="2" t="n">
+      <c r="F126" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B126) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4566,11 +4570,11 @@
       <c r="D127" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E127" s="2" t="n">
+      <c r="E127" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A127) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F127" s="2" t="n">
+      <c r="F127" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B127) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4588,11 +4592,11 @@
       <c r="D128" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E128" s="2" t="n">
+      <c r="E128" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A128) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F128" s="2" t="n">
+      <c r="F128" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B128) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4610,11 +4614,11 @@
       <c r="D129" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E129" s="2" t="n">
+      <c r="E129" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A129) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F129" s="2" t="n">
+      <c r="F129" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B129) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4632,11 +4636,11 @@
       <c r="D130" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E130" s="2" t="n">
+      <c r="E130" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A130) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F130" s="2" t="n">
+      <c r="F130" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B130) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4654,11 +4658,11 @@
       <c r="D131" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E131" s="2" t="n">
+      <c r="E131" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A131) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F131" s="2" t="n">
+      <c r="F131" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B131) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4676,11 +4680,11 @@
       <c r="D132" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E132" s="2" t="n">
+      <c r="E132" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A132) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F132" s="2" t="n">
+      <c r="F132" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B132) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4698,11 +4702,11 @@
       <c r="D133" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E133" s="2" t="n">
+      <c r="E133" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A133) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F133" s="2" t="n">
+      <c r="F133" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B133) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4720,11 +4724,11 @@
       <c r="D134" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E134" s="2" t="n">
+      <c r="E134" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A134) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F134" s="2" t="n">
+      <c r="F134" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B134) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4742,11 +4746,11 @@
       <c r="D135" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E135" s="2" t="n">
+      <c r="E135" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A135) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F135" s="2" t="n">
+      <c r="F135" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B135) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4764,11 +4768,11 @@
       <c r="D136" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E136" s="2" t="n">
+      <c r="E136" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A136) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F136" s="2" t="n">
+      <c r="F136" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B136) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4786,11 +4790,11 @@
       <c r="D137" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E137" s="2" t="n">
+      <c r="E137" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A137) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F137" s="2" t="n">
+      <c r="F137" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B137) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4808,11 +4812,11 @@
       <c r="D138" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E138" s="2" t="n">
+      <c r="E138" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A138) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F138" s="2" t="n">
+      <c r="F138" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B138) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4830,11 +4834,11 @@
       <c r="D139" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E139" s="2" t="n">
+      <c r="E139" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A139) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F139" s="2" t="n">
+      <c r="F139" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B139) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4852,11 +4856,11 @@
       <c r="D140" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E140" s="2" t="n">
+      <c r="E140" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A140) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F140" s="2" t="n">
+      <c r="F140" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B140) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4874,11 +4878,11 @@
       <c r="D141" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E141" s="2" t="n">
+      <c r="E141" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A141) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F141" s="2" t="n">
+      <c r="F141" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B141) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4896,11 +4900,11 @@
       <c r="D142" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E142" s="2" t="n">
+      <c r="E142" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A142) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F142" s="2" t="n">
+      <c r="F142" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B142) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4918,11 +4922,11 @@
       <c r="D143" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E143" s="2" t="n">
+      <c r="E143" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A143) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F143" s="2" t="n">
+      <c r="F143" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B143) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4940,11 +4944,11 @@
       <c r="D144" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E144" s="2" t="n">
+      <c r="E144" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A144) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F144" s="2" t="n">
+      <c r="F144" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B144) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4962,11 +4966,11 @@
       <c r="D145" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="E145" s="2" t="n">
+      <c r="E145" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A145) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F145" s="2" t="n">
+      <c r="F145" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B145) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4984,11 +4988,11 @@
       <c r="D146" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E146" s="2" t="n">
+      <c r="E146" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A146) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F146" s="2" t="n">
+      <c r="F146" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B146) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5006,11 +5010,11 @@
       <c r="D147" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E147" s="2" t="n">
+      <c r="E147" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A147) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F147" s="2" t="n">
+      <c r="F147" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B147) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5028,11 +5032,11 @@
       <c r="D148" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E148" s="2" t="n">
+      <c r="E148" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A148) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F148" s="2" t="n">
+      <c r="F148" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B148) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5050,11 +5054,11 @@
       <c r="D149" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E149" s="2" t="n">
+      <c r="E149" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A149) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F149" s="2" t="n">
+      <c r="F149" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B149) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5072,11 +5076,11 @@
       <c r="D150" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E150" s="2" t="n">
+      <c r="E150" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A150) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F150" s="2" t="n">
+      <c r="F150" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B150) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5094,11 +5098,11 @@
       <c r="D151" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E151" s="2" t="n">
+      <c r="E151" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A151) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F151" s="2" t="n">
+      <c r="F151" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B151) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5116,11 +5120,11 @@
       <c r="D152" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E152" s="2" t="n">
+      <c r="E152" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A152) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F152" s="2" t="n">
+      <c r="F152" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B152) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5138,11 +5142,11 @@
       <c r="D153" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E153" s="2" t="n">
+      <c r="E153" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A153) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F153" s="2" t="n">
+      <c r="F153" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B153) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5160,11 +5164,11 @@
       <c r="D154" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E154" s="2" t="n">
+      <c r="E154" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A154) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F154" s="2" t="n">
+      <c r="F154" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B154) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5182,11 +5186,11 @@
       <c r="D155" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E155" s="2" t="n">
+      <c r="E155" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A155) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F155" s="2" t="n">
+      <c r="F155" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B155) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5204,11 +5208,11 @@
       <c r="D156" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E156" s="2" t="n">
+      <c r="E156" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A156) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F156" s="2" t="n">
+      <c r="F156" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B156) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5226,11 +5230,11 @@
       <c r="D157" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E157" s="2" t="n">
+      <c r="E157" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$921, A157) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F157" s="2" t="n">
+      <c r="F157" s="2" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B157) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5375,7 +5379,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L34" activeCellId="1" sqref="E73:F157 L34"/>
+      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5566,7 +5570,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="1" sqref="E73:F157 E4"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5626,7 +5630,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="E73:F157 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5726,7 +5730,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="E73:F157 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5825,7 +5829,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="E73:F157 F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5915,7 +5919,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="1" sqref="E73:F157 A26"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5986,7 +5990,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E73:F157 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6057,7 +6061,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J30" activeCellId="1" sqref="E73:F157 J30"/>
+      <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6140,6 +6144,65 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -6148,7 +6211,7 @@
   <dimension ref="A1:L186"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E97" activeCellId="0" sqref="E73:F157"/>
+      <selection pane="topLeft" activeCell="E97" activeCellId="0" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7391,11 +7454,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A27) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K27" s="2" t="n">
+      <c r="K27" s="2" t="b">
         <f aca="false">C27&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L27" s="2" t="n">
+      <c r="L27" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B27), ISNUMBER(C27), B27&lt;=C27)</f>
         <v>1</v>
       </c>
@@ -7437,11 +7500,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A28) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K28" s="2" t="n">
+      <c r="K28" s="2" t="b">
         <f aca="false">C28&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L28" s="2" t="n">
+      <c r="L28" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B28), ISNUMBER(C28), B28&lt;=C28)</f>
         <v>1</v>
       </c>
@@ -7483,11 +7546,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A29) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K29" s="2" t="n">
+      <c r="K29" s="2" t="b">
         <f aca="false">C29&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L29" s="2" t="n">
+      <c r="L29" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B29), ISNUMBER(C29), B29&lt;=C29)</f>
         <v>1</v>
       </c>
@@ -7529,11 +7592,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A30) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K30" s="2" t="n">
+      <c r="K30" s="2" t="b">
         <f aca="false">C30&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L30" s="2" t="n">
+      <c r="L30" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B30), ISNUMBER(C30), B30&lt;=C30)</f>
         <v>1</v>
       </c>
@@ -7575,11 +7638,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A31) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K31" s="2" t="n">
+      <c r="K31" s="2" t="b">
         <f aca="false">C31&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L31" s="2" t="n">
+      <c r="L31" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B31), ISNUMBER(C31), B31&lt;=C31)</f>
         <v>1</v>
       </c>
@@ -7621,11 +7684,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A32) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K32" s="2" t="n">
+      <c r="K32" s="2" t="b">
         <f aca="false">C32&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L32" s="2" t="n">
+      <c r="L32" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B32), ISNUMBER(C32), B32&lt;=C32)</f>
         <v>1</v>
       </c>
@@ -7667,11 +7730,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A33) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K33" s="2" t="n">
+      <c r="K33" s="2" t="b">
         <f aca="false">C33&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L33" s="2" t="n">
+      <c r="L33" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B33), ISNUMBER(C33), B33&lt;=C33)</f>
         <v>1</v>
       </c>
@@ -7713,11 +7776,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A34) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K34" s="2" t="n">
+      <c r="K34" s="2" t="b">
         <f aca="false">C34&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L34" s="2" t="n">
+      <c r="L34" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B34), ISNUMBER(C34), B34&lt;=C34)</f>
         <v>1</v>
       </c>
@@ -7759,11 +7822,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A35) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K35" s="2" t="n">
+      <c r="K35" s="2" t="b">
         <f aca="false">C35&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L35" s="2" t="n">
+      <c r="L35" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B35), ISNUMBER(C35), B35&lt;=C35)</f>
         <v>1</v>
       </c>
@@ -7805,11 +7868,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A36) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K36" s="2" t="n">
+      <c r="K36" s="2" t="b">
         <f aca="false">C36&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L36" s="2" t="n">
+      <c r="L36" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B36), ISNUMBER(C36), B36&lt;=C36)</f>
         <v>1</v>
       </c>
@@ -7851,11 +7914,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A37) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K37" s="2" t="n">
+      <c r="K37" s="2" t="b">
         <f aca="false">C37&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L37" s="2" t="n">
+      <c r="L37" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B37), ISNUMBER(C37), B37&lt;=C37)</f>
         <v>1</v>
       </c>
@@ -7897,11 +7960,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A38) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K38" s="2" t="n">
+      <c r="K38" s="2" t="b">
         <f aca="false">C38&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L38" s="2" t="n">
+      <c r="L38" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B38), ISNUMBER(C38), B38&lt;=C38)</f>
         <v>1</v>
       </c>
@@ -7943,11 +8006,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A39) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K39" s="2" t="n">
+      <c r="K39" s="2" t="b">
         <f aca="false">C39&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L39" s="2" t="n">
+      <c r="L39" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B39), ISNUMBER(C39), B39&lt;=C39)</f>
         <v>1</v>
       </c>
@@ -7989,11 +8052,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A40) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K40" s="2" t="n">
+      <c r="K40" s="2" t="b">
         <f aca="false">C40&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L40" s="2" t="n">
+      <c r="L40" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B40), ISNUMBER(C40), B40&lt;=C40)</f>
         <v>1</v>
       </c>
@@ -8035,11 +8098,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A41) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K41" s="2" t="n">
+      <c r="K41" s="2" t="b">
         <f aca="false">C41&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L41" s="2" t="n">
+      <c r="L41" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B41), ISNUMBER(C41), B41&lt;=C41)</f>
         <v>1</v>
       </c>
@@ -8081,11 +8144,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A42) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K42" s="2" t="n">
+      <c r="K42" s="2" t="b">
         <f aca="false">C42&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L42" s="2" t="n">
+      <c r="L42" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B42), ISNUMBER(C42), B42&lt;=C42)</f>
         <v>1</v>
       </c>
@@ -8127,11 +8190,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A43) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K43" s="2" t="n">
+      <c r="K43" s="2" t="b">
         <f aca="false">C43&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L43" s="2" t="n">
+      <c r="L43" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B43), ISNUMBER(C43), B43&lt;=C43)</f>
         <v>1</v>
       </c>
@@ -8173,11 +8236,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A44) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K44" s="2" t="n">
+      <c r="K44" s="2" t="b">
         <f aca="false">C44&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L44" s="2" t="n">
+      <c r="L44" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B44), ISNUMBER(C44), B44&lt;=C44)</f>
         <v>1</v>
       </c>
@@ -8219,11 +8282,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A45) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K45" s="2" t="n">
+      <c r="K45" s="2" t="b">
         <f aca="false">C45&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L45" s="2" t="n">
+      <c r="L45" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B45), ISNUMBER(C45), B45&lt;=C45)</f>
         <v>1</v>
       </c>
@@ -8265,11 +8328,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A46) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K46" s="2" t="n">
+      <c r="K46" s="2" t="b">
         <f aca="false">C46&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L46" s="2" t="n">
+      <c r="L46" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B46), ISNUMBER(C46), B46&lt;=C46)</f>
         <v>1</v>
       </c>
@@ -8311,11 +8374,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A47) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K47" s="2" t="n">
+      <c r="K47" s="2" t="b">
         <f aca="false">C47&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L47" s="2" t="n">
+      <c r="L47" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B47), ISNUMBER(C47), B47&lt;=C47)</f>
         <v>1</v>
       </c>
@@ -8357,11 +8420,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A48) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K48" s="2" t="n">
+      <c r="K48" s="2" t="b">
         <f aca="false">C48&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L48" s="2" t="n">
+      <c r="L48" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B48), ISNUMBER(C48), B48&lt;=C48)</f>
         <v>1</v>
       </c>
@@ -8403,11 +8466,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A49) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K49" s="2" t="n">
+      <c r="K49" s="2" t="b">
         <f aca="false">C49&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L49" s="2" t="n">
+      <c r="L49" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B49), ISNUMBER(C49), B49&lt;=C49)</f>
         <v>1</v>
       </c>
@@ -8449,11 +8512,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A50) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K50" s="2" t="n">
+      <c r="K50" s="2" t="b">
         <f aca="false">C50&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L50" s="2" t="n">
+      <c r="L50" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B50), ISNUMBER(C50), B50&lt;=C50)</f>
         <v>1</v>
       </c>
@@ -8495,11 +8558,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A51) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K51" s="2" t="n">
+      <c r="K51" s="2" t="b">
         <f aca="false">C51&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L51" s="2" t="n">
+      <c r="L51" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B51), ISNUMBER(C51), B51&lt;=C51)</f>
         <v>1</v>
       </c>
@@ -8541,11 +8604,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A52) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K52" s="2" t="n">
+      <c r="K52" s="2" t="b">
         <f aca="false">C52&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L52" s="2" t="n">
+      <c r="L52" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B52), ISNUMBER(C52), B52&lt;=C52)</f>
         <v>1</v>
       </c>
@@ -8587,11 +8650,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A53) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K53" s="2" t="n">
+      <c r="K53" s="2" t="b">
         <f aca="false">C53&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L53" s="2" t="n">
+      <c r="L53" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B53), ISNUMBER(C53), B53&lt;=C53)</f>
         <v>1</v>
       </c>
@@ -8633,11 +8696,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A54) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K54" s="2" t="n">
+      <c r="K54" s="2" t="b">
         <f aca="false">C54&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L54" s="2" t="n">
+      <c r="L54" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B54), ISNUMBER(C54), B54&lt;=C54)</f>
         <v>1</v>
       </c>
@@ -8679,11 +8742,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A55) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K55" s="2" t="n">
+      <c r="K55" s="2" t="b">
         <f aca="false">C55&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L55" s="2" t="n">
+      <c r="L55" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B55), ISNUMBER(C55), B55&lt;=C55)</f>
         <v>1</v>
       </c>
@@ -8725,11 +8788,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A56) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K56" s="2" t="n">
+      <c r="K56" s="2" t="b">
         <f aca="false">C56&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L56" s="2" t="n">
+      <c r="L56" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B56), ISNUMBER(C56), B56&lt;=C56)</f>
         <v>1</v>
       </c>
@@ -8771,11 +8834,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A57) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K57" s="2" t="n">
+      <c r="K57" s="2" t="b">
         <f aca="false">C57&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L57" s="2" t="n">
+      <c r="L57" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B57), ISNUMBER(C57), B57&lt;=C57)</f>
         <v>1</v>
       </c>
@@ -8817,11 +8880,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A58) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K58" s="2" t="n">
+      <c r="K58" s="2" t="b">
         <f aca="false">C58&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L58" s="2" t="n">
+      <c r="L58" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B58), ISNUMBER(C58), B58&lt;=C58)</f>
         <v>1</v>
       </c>
@@ -8863,11 +8926,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A59) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K59" s="2" t="n">
+      <c r="K59" s="2" t="b">
         <f aca="false">C59&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L59" s="2" t="n">
+      <c r="L59" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B59), ISNUMBER(C59), B59&lt;=C59)</f>
         <v>1</v>
       </c>
@@ -8909,11 +8972,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A60) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K60" s="2" t="n">
+      <c r="K60" s="2" t="b">
         <f aca="false">C60&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L60" s="2" t="n">
+      <c r="L60" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B60), ISNUMBER(C60), B60&lt;=C60)</f>
         <v>1</v>
       </c>
@@ -8955,11 +9018,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A61) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K61" s="2" t="n">
+      <c r="K61" s="2" t="b">
         <f aca="false">C61&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L61" s="2" t="n">
+      <c r="L61" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B61), ISNUMBER(C61), B61&lt;=C61)</f>
         <v>1</v>
       </c>
@@ -9001,11 +9064,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A62) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K62" s="2" t="n">
+      <c r="K62" s="2" t="b">
         <f aca="false">C62&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L62" s="2" t="n">
+      <c r="L62" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B62), ISNUMBER(C62), B62&lt;=C62)</f>
         <v>1</v>
       </c>
@@ -9047,11 +9110,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A63) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K63" s="2" t="n">
+      <c r="K63" s="2" t="b">
         <f aca="false">C63&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L63" s="2" t="n">
+      <c r="L63" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B63), ISNUMBER(C63), B63&lt;=C63)</f>
         <v>1</v>
       </c>
@@ -9093,11 +9156,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A64) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K64" s="2" t="n">
+      <c r="K64" s="2" t="b">
         <f aca="false">C64&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L64" s="2" t="n">
+      <c r="L64" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B64), ISNUMBER(C64), B64&lt;=C64)</f>
         <v>1</v>
       </c>
@@ -9139,11 +9202,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A65) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K65" s="2" t="n">
+      <c r="K65" s="2" t="b">
         <f aca="false">C65&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L65" s="2" t="n">
+      <c r="L65" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B65), ISNUMBER(C65), B65&lt;=C65)</f>
         <v>1</v>
       </c>
@@ -9185,11 +9248,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A66) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K66" s="2" t="n">
+      <c r="K66" s="2" t="b">
         <f aca="false">C66&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L66" s="2" t="n">
+      <c r="L66" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B66), ISNUMBER(C66), B66&lt;=C66)</f>
         <v>1</v>
       </c>
@@ -9231,11 +9294,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A67) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K67" s="2" t="n">
+      <c r="K67" s="2" t="b">
         <f aca="false">C67&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L67" s="2" t="n">
+      <c r="L67" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B67), ISNUMBER(C67), B67&lt;=C67)</f>
         <v>1</v>
       </c>
@@ -9277,11 +9340,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A68) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K68" s="2" t="n">
+      <c r="K68" s="2" t="b">
         <f aca="false">C68&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L68" s="2" t="n">
+      <c r="L68" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B68), ISNUMBER(C68), B68&lt;=C68)</f>
         <v>1</v>
       </c>
@@ -9323,11 +9386,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A69) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K69" s="2" t="n">
+      <c r="K69" s="2" t="b">
         <f aca="false">C69&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L69" s="2" t="n">
+      <c r="L69" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B69), ISNUMBER(C69), B69&lt;=C69)</f>
         <v>1</v>
       </c>
@@ -9369,11 +9432,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A70) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K70" s="2" t="n">
+      <c r="K70" s="2" t="b">
         <f aca="false">C70&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L70" s="2" t="n">
+      <c r="L70" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B70), ISNUMBER(C70), B70&lt;=C70)</f>
         <v>1</v>
       </c>
@@ -9415,11 +9478,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A71) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K71" s="2" t="n">
+      <c r="K71" s="2" t="b">
         <f aca="false">C71&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L71" s="2" t="n">
+      <c r="L71" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B71), ISNUMBER(C71), B71&lt;=C71)</f>
         <v>1</v>
       </c>
@@ -9461,11 +9524,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A72) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K72" s="2" t="n">
+      <c r="K72" s="2" t="b">
         <f aca="false">C72&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L72" s="2" t="n">
+      <c r="L72" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B72), ISNUMBER(C72), B72&lt;=C72)</f>
         <v>1</v>
       </c>
@@ -9507,11 +9570,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A73) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K73" s="2" t="n">
+      <c r="K73" s="2" t="b">
         <f aca="false">C73&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L73" s="2" t="n">
+      <c r="L73" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B73), ISNUMBER(C73), B73&lt;=C73)</f>
         <v>1</v>
       </c>
@@ -9553,11 +9616,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A74) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K74" s="2" t="n">
+      <c r="K74" s="2" t="b">
         <f aca="false">C74&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L74" s="2" t="n">
+      <c r="L74" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B74), ISNUMBER(C74), B74&lt;=C74)</f>
         <v>1</v>
       </c>
@@ -9599,11 +9662,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A75) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K75" s="2" t="n">
+      <c r="K75" s="2" t="b">
         <f aca="false">C75&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L75" s="2" t="n">
+      <c r="L75" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B75), ISNUMBER(C75), B75&lt;=C75)</f>
         <v>1</v>
       </c>
@@ -9645,11 +9708,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A76) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K76" s="2" t="n">
+      <c r="K76" s="2" t="b">
         <f aca="false">C76&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L76" s="2" t="n">
+      <c r="L76" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B76), ISNUMBER(C76), B76&lt;=C76)</f>
         <v>1</v>
       </c>
@@ -9691,11 +9754,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A77) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K77" s="2" t="n">
+      <c r="K77" s="2" t="b">
         <f aca="false">C77&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L77" s="2" t="n">
+      <c r="L77" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B77), ISNUMBER(C77), B77&lt;=C77)</f>
         <v>1</v>
       </c>
@@ -9737,11 +9800,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A78) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K78" s="2" t="n">
+      <c r="K78" s="2" t="b">
         <f aca="false">C78&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L78" s="2" t="n">
+      <c r="L78" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B78), ISNUMBER(C78), B78&lt;=C78)</f>
         <v>1</v>
       </c>
@@ -9783,11 +9846,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A79) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K79" s="2" t="n">
+      <c r="K79" s="2" t="b">
         <f aca="false">C79&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L79" s="2" t="n">
+      <c r="L79" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B79), ISNUMBER(C79), B79&lt;=C79)</f>
         <v>1</v>
       </c>
@@ -9829,11 +9892,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A80) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K80" s="2" t="n">
+      <c r="K80" s="2" t="b">
         <f aca="false">C80&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L80" s="2" t="n">
+      <c r="L80" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B80), ISNUMBER(C80), B80&lt;=C80)</f>
         <v>1</v>
       </c>
@@ -9875,11 +9938,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A81) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K81" s="2" t="n">
+      <c r="K81" s="2" t="b">
         <f aca="false">C81&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L81" s="2" t="n">
+      <c r="L81" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B81), ISNUMBER(C81), B81&lt;=C81)</f>
         <v>1</v>
       </c>
@@ -9921,11 +9984,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A82) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K82" s="2" t="n">
+      <c r="K82" s="2" t="b">
         <f aca="false">C82&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L82" s="2" t="n">
+      <c r="L82" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B82), ISNUMBER(C82), B82&lt;=C82)</f>
         <v>1</v>
       </c>
@@ -9967,11 +10030,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A83) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K83" s="2" t="n">
+      <c r="K83" s="2" t="b">
         <f aca="false">C83&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L83" s="2" t="n">
+      <c r="L83" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B83), ISNUMBER(C83), B83&lt;=C83)</f>
         <v>1</v>
       </c>
@@ -10013,11 +10076,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A84) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K84" s="2" t="n">
+      <c r="K84" s="2" t="b">
         <f aca="false">C84&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L84" s="2" t="n">
+      <c r="L84" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B84), ISNUMBER(C84), B84&lt;=C84)</f>
         <v>1</v>
       </c>
@@ -10059,11 +10122,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A85) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K85" s="2" t="n">
+      <c r="K85" s="2" t="b">
         <f aca="false">C85&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L85" s="2" t="n">
+      <c r="L85" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B85), ISNUMBER(C85), B85&lt;=C85)</f>
         <v>1</v>
       </c>
@@ -10105,11 +10168,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A86) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K86" s="2" t="n">
+      <c r="K86" s="2" t="b">
         <f aca="false">C86&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L86" s="2" t="n">
+      <c r="L86" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B86), ISNUMBER(C86), B86&lt;=C86)</f>
         <v>1</v>
       </c>
@@ -10151,11 +10214,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A87) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K87" s="2" t="n">
+      <c r="K87" s="2" t="b">
         <f aca="false">C87&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L87" s="2" t="n">
+      <c r="L87" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B87), ISNUMBER(C87), B87&lt;=C87)</f>
         <v>1</v>
       </c>
@@ -10197,11 +10260,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A88) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K88" s="2" t="n">
+      <c r="K88" s="2" t="b">
         <f aca="false">C88&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L88" s="2" t="n">
+      <c r="L88" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B88), ISNUMBER(C88), B88&lt;=C88)</f>
         <v>1</v>
       </c>
@@ -10243,11 +10306,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A89) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K89" s="2" t="n">
+      <c r="K89" s="2" t="b">
         <f aca="false">C89&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L89" s="2" t="n">
+      <c r="L89" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B89), ISNUMBER(C89), B89&lt;=C89)</f>
         <v>1</v>
       </c>
@@ -10289,11 +10352,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A90) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K90" s="2" t="n">
+      <c r="K90" s="2" t="b">
         <f aca="false">C90&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L90" s="2" t="n">
+      <c r="L90" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B90), ISNUMBER(C90), B90&lt;=C90)</f>
         <v>1</v>
       </c>
@@ -10335,11 +10398,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A91) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K91" s="2" t="n">
+      <c r="K91" s="2" t="b">
         <f aca="false">C91&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L91" s="2" t="n">
+      <c r="L91" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B91), ISNUMBER(C91), B91&lt;=C91)</f>
         <v>1</v>
       </c>
@@ -10381,11 +10444,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A92) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K92" s="2" t="n">
+      <c r="K92" s="2" t="b">
         <f aca="false">C92&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L92" s="2" t="n">
+      <c r="L92" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B92), ISNUMBER(C92), B92&lt;=C92)</f>
         <v>1</v>
       </c>
@@ -10427,11 +10490,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A93) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K93" s="2" t="n">
+      <c r="K93" s="2" t="b">
         <f aca="false">C93&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L93" s="2" t="n">
+      <c r="L93" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B93), ISNUMBER(C93), B93&lt;=C93)</f>
         <v>1</v>
       </c>
@@ -10473,11 +10536,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A94) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K94" s="2" t="n">
+      <c r="K94" s="2" t="b">
         <f aca="false">C94&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L94" s="2" t="n">
+      <c r="L94" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B94), ISNUMBER(C94), B94&lt;=C94)</f>
         <v>1</v>
       </c>
@@ -10519,11 +10582,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A95) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K95" s="2" t="n">
+      <c r="K95" s="2" t="b">
         <f aca="false">C95&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L95" s="2" t="n">
+      <c r="L95" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B95), ISNUMBER(C95), B95&lt;=C95)</f>
         <v>1</v>
       </c>
@@ -10565,11 +10628,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A96) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K96" s="2" t="n">
+      <c r="K96" s="2" t="b">
         <f aca="false">C96&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L96" s="2" t="n">
+      <c r="L96" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B96), ISNUMBER(C96), B96&lt;=C96)</f>
         <v>1</v>
       </c>
@@ -10611,11 +10674,11 @@
         <f aca="false">COUNTIF(links!$B$1:$B$493, A97) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K97" s="2" t="n">
+      <c r="K97" s="2" t="b">
         <f aca="false">C97&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L97" s="2" t="n">
+      <c r="L97" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B97), ISNUMBER(C97), B97&lt;=C97)</f>
         <v>1</v>
       </c>
@@ -10653,15 +10716,15 @@
         <f aca="false">H98 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J98" s="2" t="n">
+      <c r="J98" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A98) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K98" s="2" t="n">
+      <c r="K98" s="2" t="b">
         <f aca="false">C98&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L98" s="2" t="n">
+      <c r="L98" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B98), ISNUMBER(C98), B98&lt;=C98)</f>
         <v>1</v>
       </c>
@@ -10699,15 +10762,15 @@
         <f aca="false">H99 + 0.25</f>
         <v>1.75</v>
       </c>
-      <c r="J99" s="2" t="n">
+      <c r="J99" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A99) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K99" s="2" t="n">
+      <c r="K99" s="2" t="b">
         <f aca="false">C99&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L99" s="2" t="n">
+      <c r="L99" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B99), ISNUMBER(C99), B99&lt;=C99)</f>
         <v>1</v>
       </c>
@@ -10745,15 +10808,15 @@
         <f aca="false">H100 + 0.25</f>
         <v>6.25</v>
       </c>
-      <c r="J100" s="2" t="n">
+      <c r="J100" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A100) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K100" s="2" t="n">
+      <c r="K100" s="2" t="b">
         <f aca="false">C100&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L100" s="2" t="n">
+      <c r="L100" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B100), ISNUMBER(C100), B100&lt;=C100)</f>
         <v>1</v>
       </c>
@@ -10791,15 +10854,15 @@
         <f aca="false">H101 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J101" s="2" t="n">
+      <c r="J101" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A101) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K101" s="2" t="n">
+      <c r="K101" s="2" t="b">
         <f aca="false">C101&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L101" s="2" t="n">
+      <c r="L101" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B101), ISNUMBER(C101), B101&lt;=C101)</f>
         <v>1</v>
       </c>
@@ -10837,15 +10900,15 @@
         <f aca="false">H102 + 0.25</f>
         <v>1.75</v>
       </c>
-      <c r="J102" s="2" t="n">
+      <c r="J102" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A102) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K102" s="2" t="n">
+      <c r="K102" s="2" t="b">
         <f aca="false">C102&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L102" s="2" t="n">
+      <c r="L102" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B102), ISNUMBER(C102), B102&lt;=C102)</f>
         <v>1</v>
       </c>
@@ -10883,15 +10946,15 @@
         <f aca="false">H103 + 0.25</f>
         <v>2.25</v>
       </c>
-      <c r="J103" s="2" t="n">
+      <c r="J103" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A103) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K103" s="2" t="n">
+      <c r="K103" s="2" t="b">
         <f aca="false">C103&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L103" s="2" t="n">
+      <c r="L103" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B103), ISNUMBER(C103), B103&lt;=C103)</f>
         <v>1</v>
       </c>
@@ -10929,15 +10992,15 @@
         <f aca="false">H104 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J104" s="2" t="n">
+      <c r="J104" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A104) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K104" s="2" t="n">
+      <c r="K104" s="2" t="b">
         <f aca="false">C104&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L104" s="2" t="n">
+      <c r="L104" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B104), ISNUMBER(C104), B104&lt;=C104)</f>
         <v>1</v>
       </c>
@@ -10975,15 +11038,15 @@
         <f aca="false">H105 + 0.25</f>
         <v>1.5</v>
       </c>
-      <c r="J105" s="2" t="n">
+      <c r="J105" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A105) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K105" s="2" t="n">
+      <c r="K105" s="2" t="b">
         <f aca="false">C105&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L105" s="2" t="n">
+      <c r="L105" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B105), ISNUMBER(C105), B105&lt;=C105)</f>
         <v>1</v>
       </c>
@@ -11021,15 +11084,15 @@
         <f aca="false">H106 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J106" s="2" t="n">
+      <c r="J106" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A106) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K106" s="2" t="n">
+      <c r="K106" s="2" t="b">
         <f aca="false">C106&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L106" s="2" t="n">
+      <c r="L106" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B106), ISNUMBER(C106), B106&lt;=C106)</f>
         <v>1</v>
       </c>
@@ -11067,15 +11130,15 @@
         <f aca="false">H107 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J107" s="2" t="n">
+      <c r="J107" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A107) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K107" s="2" t="n">
+      <c r="K107" s="2" t="b">
         <f aca="false">C107&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L107" s="2" t="n">
+      <c r="L107" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B107), ISNUMBER(C107), B107&lt;=C107)</f>
         <v>1</v>
       </c>
@@ -11113,15 +11176,15 @@
         <f aca="false">H108 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J108" s="2" t="n">
+      <c r="J108" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A108) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K108" s="2" t="n">
+      <c r="K108" s="2" t="b">
         <f aca="false">C108&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L108" s="2" t="n">
+      <c r="L108" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B108), ISNUMBER(C108), B108&lt;=C108)</f>
         <v>1</v>
       </c>
@@ -11159,15 +11222,15 @@
         <f aca="false">H109 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J109" s="2" t="n">
+      <c r="J109" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A109) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K109" s="2" t="n">
+      <c r="K109" s="2" t="b">
         <f aca="false">C109&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L109" s="2" t="n">
+      <c r="L109" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B109), ISNUMBER(C109), B109&lt;=C109)</f>
         <v>1</v>
       </c>
@@ -11205,15 +11268,15 @@
         <f aca="false">H110 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J110" s="2" t="n">
+      <c r="J110" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A110) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K110" s="2" t="n">
+      <c r="K110" s="2" t="b">
         <f aca="false">C110&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L110" s="2" t="n">
+      <c r="L110" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B110), ISNUMBER(C110), B110&lt;=C110)</f>
         <v>1</v>
       </c>
@@ -11251,15 +11314,15 @@
         <f aca="false">H111 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J111" s="2" t="n">
+      <c r="J111" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A111) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K111" s="2" t="n">
+      <c r="K111" s="2" t="b">
         <f aca="false">C111&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L111" s="2" t="n">
+      <c r="L111" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B111), ISNUMBER(C111), B111&lt;=C111)</f>
         <v>1</v>
       </c>
@@ -11297,15 +11360,15 @@
         <f aca="false">H112 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J112" s="2" t="n">
+      <c r="J112" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A112) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K112" s="2" t="n">
+      <c r="K112" s="2" t="b">
         <f aca="false">C112&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L112" s="2" t="n">
+      <c r="L112" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B112), ISNUMBER(C112), B112&lt;=C112)</f>
         <v>1</v>
       </c>
@@ -11343,15 +11406,15 @@
         <f aca="false">H113 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J113" s="2" t="n">
+      <c r="J113" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A113) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K113" s="2" t="n">
+      <c r="K113" s="2" t="b">
         <f aca="false">C113&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L113" s="2" t="n">
+      <c r="L113" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B113), ISNUMBER(C113), B113&lt;=C113)</f>
         <v>1</v>
       </c>
@@ -11389,15 +11452,15 @@
         <f aca="false">H114 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J114" s="2" t="n">
+      <c r="J114" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A114) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K114" s="2" t="n">
+      <c r="K114" s="2" t="b">
         <f aca="false">C114&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L114" s="2" t="n">
+      <c r="L114" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B114), ISNUMBER(C114), B114&lt;=C114)</f>
         <v>1</v>
       </c>
@@ -11435,15 +11498,15 @@
         <f aca="false">H115 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J115" s="2" t="n">
+      <c r="J115" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A115) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K115" s="2" t="n">
+      <c r="K115" s="2" t="b">
         <f aca="false">C115&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L115" s="2" t="n">
+      <c r="L115" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B115), ISNUMBER(C115), B115&lt;=C115)</f>
         <v>1</v>
       </c>
@@ -11481,15 +11544,15 @@
         <f aca="false">H116 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J116" s="2" t="n">
+      <c r="J116" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A116) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K116" s="2" t="n">
+      <c r="K116" s="2" t="b">
         <f aca="false">C116&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L116" s="2" t="n">
+      <c r="L116" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B116), ISNUMBER(C116), B116&lt;=C116)</f>
         <v>1</v>
       </c>
@@ -11527,15 +11590,15 @@
         <f aca="false">H117 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J117" s="2" t="n">
+      <c r="J117" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A117) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K117" s="2" t="n">
+      <c r="K117" s="2" t="b">
         <f aca="false">C117&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L117" s="2" t="n">
+      <c r="L117" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B117), ISNUMBER(C117), B117&lt;=C117)</f>
         <v>1</v>
       </c>
@@ -11573,15 +11636,15 @@
         <f aca="false">H118 + 0.25</f>
         <v>1</v>
       </c>
-      <c r="J118" s="2" t="n">
+      <c r="J118" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A118) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K118" s="2" t="n">
+      <c r="K118" s="2" t="b">
         <f aca="false">C118&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L118" s="2" t="n">
+      <c r="L118" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B118), ISNUMBER(C118), B118&lt;=C118)</f>
         <v>1</v>
       </c>
@@ -11619,15 +11682,15 @@
         <f aca="false">H119 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J119" s="2" t="n">
+      <c r="J119" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A119) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K119" s="2" t="n">
+      <c r="K119" s="2" t="b">
         <f aca="false">C119&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L119" s="2" t="n">
+      <c r="L119" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B119), ISNUMBER(C119), B119&lt;=C119)</f>
         <v>1</v>
       </c>
@@ -11665,15 +11728,15 @@
         <f aca="false">H120 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J120" s="2" t="n">
+      <c r="J120" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A120) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K120" s="2" t="n">
+      <c r="K120" s="2" t="b">
         <f aca="false">C120&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L120" s="2" t="n">
+      <c r="L120" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B120), ISNUMBER(C120), B120&lt;=C120)</f>
         <v>1</v>
       </c>
@@ -11711,15 +11774,15 @@
         <f aca="false">H121 + 0.25</f>
         <v>1.75</v>
       </c>
-      <c r="J121" s="2" t="n">
+      <c r="J121" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A121) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K121" s="2" t="n">
+      <c r="K121" s="2" t="b">
         <f aca="false">C121&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L121" s="2" t="n">
+      <c r="L121" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B121), ISNUMBER(C121), B121&lt;=C121)</f>
         <v>1</v>
       </c>
@@ -11757,15 +11820,15 @@
         <f aca="false">H122 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J122" s="2" t="n">
+      <c r="J122" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A122) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K122" s="2" t="n">
+      <c r="K122" s="2" t="b">
         <f aca="false">C122&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L122" s="2" t="n">
+      <c r="L122" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B122), ISNUMBER(C122), B122&lt;=C122)</f>
         <v>1</v>
       </c>
@@ -11803,15 +11866,15 @@
         <f aca="false">H123 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J123" s="2" t="n">
+      <c r="J123" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A123) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K123" s="2" t="n">
+      <c r="K123" s="2" t="b">
         <f aca="false">C123&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L123" s="2" t="n">
+      <c r="L123" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B123), ISNUMBER(C123), B123&lt;=C123)</f>
         <v>1</v>
       </c>
@@ -11849,15 +11912,15 @@
         <f aca="false">H124 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J124" s="2" t="n">
+      <c r="J124" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A124) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K124" s="2" t="n">
+      <c r="K124" s="2" t="b">
         <f aca="false">C124&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L124" s="2" t="n">
+      <c r="L124" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B124), ISNUMBER(C124), B124&lt;=C124)</f>
         <v>1</v>
       </c>
@@ -11895,15 +11958,15 @@
         <f aca="false">H125 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J125" s="2" t="n">
+      <c r="J125" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A125) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K125" s="2" t="n">
+      <c r="K125" s="2" t="b">
         <f aca="false">C125&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L125" s="2" t="n">
+      <c r="L125" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B125), ISNUMBER(C125), B125&lt;=C125)</f>
         <v>1</v>
       </c>
@@ -11941,15 +12004,15 @@
         <f aca="false">H126 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J126" s="2" t="n">
+      <c r="J126" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A126) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K126" s="2" t="n">
+      <c r="K126" s="2" t="b">
         <f aca="false">C126&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L126" s="2" t="n">
+      <c r="L126" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B126), ISNUMBER(C126), B126&lt;=C126)</f>
         <v>1</v>
       </c>
@@ -11987,15 +12050,15 @@
         <f aca="false">H127 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J127" s="2" t="n">
+      <c r="J127" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A127) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K127" s="2" t="n">
+      <c r="K127" s="2" t="b">
         <f aca="false">C127&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L127" s="2" t="n">
+      <c r="L127" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B127), ISNUMBER(C127), B127&lt;=C127)</f>
         <v>1</v>
       </c>
@@ -12033,15 +12096,15 @@
         <f aca="false">H128 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J128" s="2" t="n">
+      <c r="J128" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A128) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K128" s="2" t="n">
+      <c r="K128" s="2" t="b">
         <f aca="false">C128&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L128" s="2" t="n">
+      <c r="L128" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B128), ISNUMBER(C128), B128&lt;=C128)</f>
         <v>1</v>
       </c>
@@ -12079,15 +12142,15 @@
         <f aca="false">H129 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J129" s="2" t="n">
+      <c r="J129" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A129) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K129" s="2" t="n">
+      <c r="K129" s="2" t="b">
         <f aca="false">C129&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L129" s="2" t="n">
+      <c r="L129" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B129), ISNUMBER(C129), B129&lt;=C129)</f>
         <v>1</v>
       </c>
@@ -12125,15 +12188,15 @@
         <f aca="false">H130 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J130" s="2" t="n">
+      <c r="J130" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A130) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K130" s="2" t="n">
+      <c r="K130" s="2" t="b">
         <f aca="false">C130&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L130" s="2" t="n">
+      <c r="L130" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B130), ISNUMBER(C130), B130&lt;=C130)</f>
         <v>1</v>
       </c>
@@ -12171,15 +12234,15 @@
         <f aca="false">H131 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J131" s="2" t="n">
+      <c r="J131" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A131) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K131" s="2" t="n">
+      <c r="K131" s="2" t="b">
         <f aca="false">C131&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L131" s="2" t="n">
+      <c r="L131" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B131), ISNUMBER(C131), B131&lt;=C131)</f>
         <v>1</v>
       </c>
@@ -12217,15 +12280,15 @@
         <f aca="false">H132 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J132" s="2" t="n">
+      <c r="J132" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A132) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K132" s="2" t="n">
+      <c r="K132" s="2" t="b">
         <f aca="false">C132&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L132" s="2" t="n">
+      <c r="L132" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B132), ISNUMBER(C132), B132&lt;=C132)</f>
         <v>1</v>
       </c>
@@ -12263,15 +12326,15 @@
         <f aca="false">H133 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J133" s="2" t="n">
+      <c r="J133" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A133) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K133" s="2" t="n">
+      <c r="K133" s="2" t="b">
         <f aca="false">C133&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L133" s="2" t="n">
+      <c r="L133" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B133), ISNUMBER(C133), B133&lt;=C133)</f>
         <v>1</v>
       </c>
@@ -12309,15 +12372,15 @@
         <f aca="false">H134 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J134" s="2" t="n">
+      <c r="J134" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A134) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K134" s="2" t="n">
+      <c r="K134" s="2" t="b">
         <f aca="false">C134&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L134" s="2" t="n">
+      <c r="L134" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B134), ISNUMBER(C134), B134&lt;=C134)</f>
         <v>1</v>
       </c>
@@ -12355,15 +12418,15 @@
         <f aca="false">H135 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J135" s="2" t="n">
+      <c r="J135" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A135) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K135" s="2" t="n">
+      <c r="K135" s="2" t="b">
         <f aca="false">C135&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L135" s="2" t="n">
+      <c r="L135" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B135), ISNUMBER(C135), B135&lt;=C135)</f>
         <v>1</v>
       </c>
@@ -12401,15 +12464,15 @@
         <f aca="false">H136 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J136" s="2" t="n">
+      <c r="J136" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A136) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K136" s="2" t="n">
+      <c r="K136" s="2" t="b">
         <f aca="false">C136&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L136" s="2" t="n">
+      <c r="L136" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B136), ISNUMBER(C136), B136&lt;=C136)</f>
         <v>1</v>
       </c>
@@ -12447,15 +12510,15 @@
         <f aca="false">H137 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J137" s="2" t="n">
+      <c r="J137" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A137) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K137" s="2" t="n">
+      <c r="K137" s="2" t="b">
         <f aca="false">C137&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L137" s="2" t="n">
+      <c r="L137" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B137), ISNUMBER(C137), B137&lt;=C137)</f>
         <v>1</v>
       </c>
@@ -12493,15 +12556,15 @@
         <f aca="false">H138 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J138" s="2" t="n">
+      <c r="J138" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A138) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K138" s="2" t="n">
+      <c r="K138" s="2" t="b">
         <f aca="false">C138&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L138" s="2" t="n">
+      <c r="L138" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B138), ISNUMBER(C138), B138&lt;=C138)</f>
         <v>1</v>
       </c>
@@ -12539,15 +12602,15 @@
         <f aca="false">H139 + 0.25</f>
         <v>1</v>
       </c>
-      <c r="J139" s="2" t="n">
+      <c r="J139" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A139) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K139" s="2" t="n">
+      <c r="K139" s="2" t="b">
         <f aca="false">C139&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L139" s="2" t="n">
+      <c r="L139" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B139), ISNUMBER(C139), B139&lt;=C139)</f>
         <v>1</v>
       </c>
@@ -12585,15 +12648,15 @@
         <f aca="false">H140 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J140" s="2" t="n">
+      <c r="J140" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A140) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K140" s="2" t="n">
+      <c r="K140" s="2" t="b">
         <f aca="false">C140&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L140" s="2" t="n">
+      <c r="L140" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B140), ISNUMBER(C140), B140&lt;=C140)</f>
         <v>1</v>
       </c>
@@ -12631,15 +12694,15 @@
         <f aca="false">H141 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J141" s="2" t="n">
+      <c r="J141" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A141) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K141" s="2" t="n">
+      <c r="K141" s="2" t="b">
         <f aca="false">C141&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L141" s="2" t="n">
+      <c r="L141" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B141), ISNUMBER(C141), B141&lt;=C141)</f>
         <v>1</v>
       </c>
@@ -12677,15 +12740,15 @@
         <f aca="false">H142 + 0.25</f>
         <v>2.5</v>
       </c>
-      <c r="J142" s="2" t="n">
+      <c r="J142" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A142) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K142" s="2" t="n">
+      <c r="K142" s="2" t="b">
         <f aca="false">C142&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L142" s="2" t="n">
+      <c r="L142" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B142), ISNUMBER(C142), B142&lt;=C142)</f>
         <v>1</v>
       </c>
@@ -12723,15 +12786,15 @@
         <f aca="false">H143 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J143" s="2" t="n">
+      <c r="J143" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A143) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K143" s="2" t="n">
+      <c r="K143" s="2" t="b">
         <f aca="false">C143&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L143" s="2" t="n">
+      <c r="L143" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B143), ISNUMBER(C143), B143&lt;=C143)</f>
         <v>1</v>
       </c>
@@ -12769,15 +12832,15 @@
         <f aca="false">H144 + 0.25</f>
         <v>1</v>
       </c>
-      <c r="J144" s="2" t="n">
+      <c r="J144" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A144) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K144" s="2" t="n">
+      <c r="K144" s="2" t="b">
         <f aca="false">C144&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L144" s="2" t="n">
+      <c r="L144" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B144), ISNUMBER(C144), B144&lt;=C144)</f>
         <v>1</v>
       </c>
@@ -12815,15 +12878,15 @@
         <f aca="false">H145 + 0.25</f>
         <v>4</v>
       </c>
-      <c r="J145" s="2" t="n">
+      <c r="J145" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A145) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K145" s="2" t="n">
+      <c r="K145" s="2" t="b">
         <f aca="false">C145&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L145" s="2" t="n">
+      <c r="L145" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B145), ISNUMBER(C145), B145&lt;=C145)</f>
         <v>1</v>
       </c>
@@ -12861,15 +12924,15 @@
         <f aca="false">H146 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J146" s="2" t="n">
+      <c r="J146" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A146) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K146" s="2" t="n">
+      <c r="K146" s="2" t="b">
         <f aca="false">C146&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L146" s="2" t="n">
+      <c r="L146" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B146), ISNUMBER(C146), B146&lt;=C146)</f>
         <v>1</v>
       </c>
@@ -12907,15 +12970,15 @@
         <f aca="false">H147 + 0.25</f>
         <v>3</v>
       </c>
-      <c r="J147" s="2" t="n">
+      <c r="J147" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A147) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K147" s="2" t="n">
+      <c r="K147" s="2" t="b">
         <f aca="false">C147&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L147" s="2" t="n">
+      <c r="L147" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B147), ISNUMBER(C147), B147&lt;=C147)</f>
         <v>1</v>
       </c>
@@ -12953,15 +13016,15 @@
         <f aca="false">H148 + 0.25</f>
         <v>1.25</v>
       </c>
-      <c r="J148" s="2" t="n">
+      <c r="J148" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A148) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K148" s="2" t="n">
+      <c r="K148" s="2" t="b">
         <f aca="false">C148&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L148" s="2" t="n">
+      <c r="L148" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B148), ISNUMBER(C148), B148&lt;=C148)</f>
         <v>1</v>
       </c>
@@ -12999,15 +13062,15 @@
         <f aca="false">H149 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J149" s="2" t="n">
+      <c r="J149" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A149) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K149" s="2" t="n">
+      <c r="K149" s="2" t="b">
         <f aca="false">C149&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L149" s="2" t="n">
+      <c r="L149" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B149), ISNUMBER(C149), B149&lt;=C149)</f>
         <v>1</v>
       </c>
@@ -13045,15 +13108,15 @@
         <f aca="false">H150 + 0.25</f>
         <v>2.25</v>
       </c>
-      <c r="J150" s="2" t="n">
+      <c r="J150" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A150) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K150" s="2" t="n">
+      <c r="K150" s="2" t="b">
         <f aca="false">C150&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L150" s="2" t="n">
+      <c r="L150" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B150), ISNUMBER(C150), B150&lt;=C150)</f>
         <v>1</v>
       </c>
@@ -13091,15 +13154,15 @@
         <f aca="false">H151 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J151" s="2" t="n">
+      <c r="J151" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A151) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K151" s="2" t="n">
+      <c r="K151" s="2" t="b">
         <f aca="false">C151&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L151" s="2" t="n">
+      <c r="L151" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B151), ISNUMBER(C151), B151&lt;=C151)</f>
         <v>1</v>
       </c>
@@ -13137,15 +13200,15 @@
         <f aca="false">H152 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J152" s="2" t="n">
+      <c r="J152" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A152) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K152" s="2" t="n">
+      <c r="K152" s="2" t="b">
         <f aca="false">C152&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L152" s="2" t="n">
+      <c r="L152" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B152), ISNUMBER(C152), B152&lt;=C152)</f>
         <v>1</v>
       </c>
@@ -13183,15 +13246,15 @@
         <f aca="false">H153 + 0.25</f>
         <v>5.5</v>
       </c>
-      <c r="J153" s="2" t="n">
+      <c r="J153" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A153) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K153" s="2" t="n">
+      <c r="K153" s="2" t="b">
         <f aca="false">C153&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L153" s="2" t="n">
+      <c r="L153" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B153), ISNUMBER(C153), B153&lt;=C153)</f>
         <v>1</v>
       </c>
@@ -13229,15 +13292,15 @@
         <f aca="false">H154 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J154" s="2" t="n">
+      <c r="J154" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A154) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K154" s="2" t="n">
+      <c r="K154" s="2" t="b">
         <f aca="false">C154&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L154" s="2" t="n">
+      <c r="L154" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B154), ISNUMBER(C154), B154&lt;=C154)</f>
         <v>1</v>
       </c>
@@ -13275,15 +13338,15 @@
         <f aca="false">H155 + 0.25</f>
         <v>1.75</v>
       </c>
-      <c r="J155" s="2" t="n">
+      <c r="J155" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A155) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K155" s="2" t="n">
+      <c r="K155" s="2" t="b">
         <f aca="false">C155&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L155" s="2" t="n">
+      <c r="L155" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B155), ISNUMBER(C155), B155&lt;=C155)</f>
         <v>1</v>
       </c>
@@ -13321,15 +13384,15 @@
         <f aca="false">H156 + 0.25</f>
         <v>1.25</v>
       </c>
-      <c r="J156" s="2" t="n">
+      <c r="J156" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A156) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K156" s="2" t="n">
+      <c r="K156" s="2" t="b">
         <f aca="false">C156&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L156" s="2" t="n">
+      <c r="L156" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B156), ISNUMBER(C156), B156&lt;=C156)</f>
         <v>1</v>
       </c>
@@ -13367,15 +13430,15 @@
         <f aca="false">H157 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J157" s="2" t="n">
+      <c r="J157" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A157) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K157" s="2" t="n">
+      <c r="K157" s="2" t="b">
         <f aca="false">C157&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L157" s="2" t="n">
+      <c r="L157" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B157), ISNUMBER(C157), B157&lt;=C157)</f>
         <v>1</v>
       </c>
@@ -13413,15 +13476,15 @@
         <f aca="false">H158 + 0.25</f>
         <v>1.25</v>
       </c>
-      <c r="J158" s="2" t="n">
+      <c r="J158" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A158) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K158" s="2" t="n">
+      <c r="K158" s="2" t="b">
         <f aca="false">C158&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L158" s="2" t="n">
+      <c r="L158" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B158), ISNUMBER(C158), B158&lt;=C158)</f>
         <v>1</v>
       </c>
@@ -13459,15 +13522,15 @@
         <f aca="false">H159 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J159" s="2" t="n">
+      <c r="J159" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A159) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K159" s="2" t="n">
+      <c r="K159" s="2" t="b">
         <f aca="false">C159&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L159" s="2" t="n">
+      <c r="L159" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B159), ISNUMBER(C159), B159&lt;=C159)</f>
         <v>1</v>
       </c>
@@ -13505,15 +13568,15 @@
         <f aca="false">H160 + 0.25</f>
         <v>1.75</v>
       </c>
-      <c r="J160" s="2" t="n">
+      <c r="J160" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A160) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K160" s="2" t="n">
+      <c r="K160" s="2" t="b">
         <f aca="false">C160&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L160" s="2" t="n">
+      <c r="L160" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B160), ISNUMBER(C160), B160&lt;=C160)</f>
         <v>1</v>
       </c>
@@ -13551,15 +13614,15 @@
         <f aca="false">H161 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J161" s="2" t="n">
+      <c r="J161" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A161) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K161" s="2" t="n">
+      <c r="K161" s="2" t="b">
         <f aca="false">C161&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L161" s="2" t="n">
+      <c r="L161" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B161), ISNUMBER(C161), B161&lt;=C161)</f>
         <v>1</v>
       </c>
@@ -13597,15 +13660,15 @@
         <f aca="false">H162 + 0.25</f>
         <v>2.25</v>
       </c>
-      <c r="J162" s="2" t="n">
+      <c r="J162" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A162) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K162" s="2" t="n">
+      <c r="K162" s="2" t="b">
         <f aca="false">C162&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L162" s="2" t="n">
+      <c r="L162" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B162), ISNUMBER(C162), B162&lt;=C162)</f>
         <v>1</v>
       </c>
@@ -13643,15 +13706,15 @@
         <f aca="false">H163 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J163" s="2" t="n">
+      <c r="J163" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A163) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K163" s="2" t="n">
+      <c r="K163" s="2" t="b">
         <f aca="false">C163&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L163" s="2" t="n">
+      <c r="L163" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B163), ISNUMBER(C163), B163&lt;=C163)</f>
         <v>1</v>
       </c>
@@ -13689,15 +13752,15 @@
         <f aca="false">H164 + 0.25</f>
         <v>2.75</v>
       </c>
-      <c r="J164" s="2" t="n">
+      <c r="J164" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A164) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K164" s="2" t="n">
+      <c r="K164" s="2" t="b">
         <f aca="false">C164&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L164" s="2" t="n">
+      <c r="L164" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B164), ISNUMBER(C164), B164&lt;=C164)</f>
         <v>1</v>
       </c>
@@ -13735,15 +13798,15 @@
         <f aca="false">H165 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J165" s="2" t="n">
+      <c r="J165" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A165) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K165" s="2" t="n">
+      <c r="K165" s="2" t="b">
         <f aca="false">C165&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L165" s="2" t="n">
+      <c r="L165" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B165), ISNUMBER(C165), B165&lt;=C165)</f>
         <v>1</v>
       </c>
@@ -13781,15 +13844,15 @@
         <f aca="false">H166 + 0.25</f>
         <v>2.75</v>
       </c>
-      <c r="J166" s="2" t="n">
+      <c r="J166" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A166) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K166" s="2" t="n">
+      <c r="K166" s="2" t="b">
         <f aca="false">C166&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L166" s="2" t="n">
+      <c r="L166" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B166), ISNUMBER(C166), B166&lt;=C166)</f>
         <v>1</v>
       </c>
@@ -13827,15 +13890,15 @@
         <f aca="false">H167 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J167" s="2" t="n">
+      <c r="J167" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A167) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K167" s="2" t="n">
+      <c r="K167" s="2" t="b">
         <f aca="false">C167&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L167" s="2" t="n">
+      <c r="L167" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B167), ISNUMBER(C167), B167&lt;=C167)</f>
         <v>1</v>
       </c>
@@ -13873,15 +13936,15 @@
         <f aca="false">H168 + 0.25</f>
         <v>2.25</v>
       </c>
-      <c r="J168" s="2" t="n">
+      <c r="J168" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A168) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K168" s="2" t="n">
+      <c r="K168" s="2" t="b">
         <f aca="false">C168&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L168" s="2" t="n">
+      <c r="L168" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B168), ISNUMBER(C168), B168&lt;=C168)</f>
         <v>1</v>
       </c>
@@ -13919,15 +13982,15 @@
         <f aca="false">H169 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J169" s="2" t="n">
+      <c r="J169" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A169) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K169" s="2" t="n">
+      <c r="K169" s="2" t="b">
         <f aca="false">C169&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L169" s="2" t="n">
+      <c r="L169" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B169), ISNUMBER(C169), B169&lt;=C169)</f>
         <v>1</v>
       </c>
@@ -13965,15 +14028,15 @@
         <f aca="false">H170 + 0.25</f>
         <v>1.75</v>
       </c>
-      <c r="J170" s="2" t="n">
+      <c r="J170" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A170) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K170" s="2" t="n">
+      <c r="K170" s="2" t="b">
         <f aca="false">C170&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L170" s="2" t="n">
+      <c r="L170" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B170), ISNUMBER(C170), B170&lt;=C170)</f>
         <v>1</v>
       </c>
@@ -14011,15 +14074,15 @@
         <f aca="false">H171 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J171" s="2" t="n">
+      <c r="J171" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A171) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K171" s="2" t="n">
+      <c r="K171" s="2" t="b">
         <f aca="false">C171&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L171" s="2" t="n">
+      <c r="L171" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B171), ISNUMBER(C171), B171&lt;=C171)</f>
         <v>1</v>
       </c>
@@ -14057,15 +14120,15 @@
         <f aca="false">H172 + 0.25</f>
         <v>2.75</v>
       </c>
-      <c r="J172" s="2" t="n">
+      <c r="J172" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A172) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K172" s="2" t="n">
+      <c r="K172" s="2" t="b">
         <f aca="false">C172&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L172" s="2" t="n">
+      <c r="L172" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B172), ISNUMBER(C172), B172&lt;=C172)</f>
         <v>1</v>
       </c>
@@ -14103,15 +14166,15 @@
         <f aca="false">H173 + 0.25</f>
         <v>2.5</v>
       </c>
-      <c r="J173" s="2" t="n">
+      <c r="J173" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A173) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K173" s="2" t="n">
+      <c r="K173" s="2" t="b">
         <f aca="false">C173&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L173" s="2" t="n">
+      <c r="L173" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B173), ISNUMBER(C173), B173&lt;=C173)</f>
         <v>1</v>
       </c>
@@ -14149,15 +14212,15 @@
         <f aca="false">H174 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J174" s="2" t="n">
+      <c r="J174" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A174) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K174" s="2" t="n">
+      <c r="K174" s="2" t="b">
         <f aca="false">C174&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L174" s="2" t="n">
+      <c r="L174" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B174), ISNUMBER(C174), B174&lt;=C174)</f>
         <v>1</v>
       </c>
@@ -14195,15 +14258,15 @@
         <f aca="false">H175 + 0.25</f>
         <v>1.75</v>
       </c>
-      <c r="J175" s="2" t="n">
+      <c r="J175" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A175) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K175" s="2" t="n">
+      <c r="K175" s="2" t="b">
         <f aca="false">C175&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L175" s="2" t="n">
+      <c r="L175" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B175), ISNUMBER(C175), B175&lt;=C175)</f>
         <v>1</v>
       </c>
@@ -14241,15 +14304,15 @@
         <f aca="false">H176 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J176" s="2" t="n">
+      <c r="J176" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A176) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K176" s="2" t="n">
+      <c r="K176" s="2" t="b">
         <f aca="false">C176&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L176" s="2" t="n">
+      <c r="L176" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B176), ISNUMBER(C176), B176&lt;=C176)</f>
         <v>1</v>
       </c>
@@ -14287,15 +14350,15 @@
         <f aca="false">H177 + 0.25</f>
         <v>1.5</v>
       </c>
-      <c r="J177" s="2" t="n">
+      <c r="J177" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A177) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K177" s="2" t="n">
+      <c r="K177" s="2" t="b">
         <f aca="false">C177&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L177" s="2" t="n">
+      <c r="L177" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B177), ISNUMBER(C177), B177&lt;=C177)</f>
         <v>1</v>
       </c>
@@ -14333,15 +14396,15 @@
         <f aca="false">H178 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J178" s="2" t="n">
+      <c r="J178" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A178) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K178" s="2" t="n">
+      <c r="K178" s="2" t="b">
         <f aca="false">C178&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L178" s="2" t="n">
+      <c r="L178" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B178), ISNUMBER(C178), B178&lt;=C178)</f>
         <v>1</v>
       </c>
@@ -14379,15 +14442,15 @@
         <f aca="false">H179 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J179" s="2" t="n">
+      <c r="J179" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A179) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K179" s="2" t="n">
+      <c r="K179" s="2" t="b">
         <f aca="false">C179&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L179" s="2" t="n">
+      <c r="L179" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B179), ISNUMBER(C179), B179&lt;=C179)</f>
         <v>1</v>
       </c>
@@ -14425,15 +14488,15 @@
         <f aca="false">H180 + 0.25</f>
         <v>1</v>
       </c>
-      <c r="J180" s="2" t="n">
+      <c r="J180" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A180) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K180" s="2" t="n">
+      <c r="K180" s="2" t="b">
         <f aca="false">C180&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L180" s="2" t="n">
+      <c r="L180" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B180), ISNUMBER(C180), B180&lt;=C180)</f>
         <v>1</v>
       </c>
@@ -14471,15 +14534,15 @@
         <f aca="false">H181 + 0.25</f>
         <v>4.5</v>
       </c>
-      <c r="J181" s="2" t="n">
+      <c r="J181" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A181) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K181" s="2" t="n">
+      <c r="K181" s="2" t="b">
         <f aca="false">C181&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L181" s="2" t="n">
+      <c r="L181" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B181), ISNUMBER(C181), B181&lt;=C181)</f>
         <v>1</v>
       </c>
@@ -14517,15 +14580,15 @@
         <f aca="false">H182 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J182" s="2" t="n">
+      <c r="J182" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A182) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K182" s="2" t="n">
+      <c r="K182" s="2" t="b">
         <f aca="false">C182&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L182" s="2" t="n">
+      <c r="L182" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B182), ISNUMBER(C182), B182&lt;=C182)</f>
         <v>1</v>
       </c>
@@ -14563,15 +14626,15 @@
         <f aca="false">H183 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J183" s="2" t="n">
+      <c r="J183" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A183) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K183" s="2" t="n">
+      <c r="K183" s="2" t="b">
         <f aca="false">C183&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L183" s="2" t="n">
+      <c r="L183" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B183), ISNUMBER(C183), B183&lt;=C183)</f>
         <v>1</v>
       </c>
@@ -14609,15 +14672,15 @@
         <f aca="false">H184 + 0.25</f>
         <v>3.75</v>
       </c>
-      <c r="J184" s="2" t="n">
+      <c r="J184" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A184) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K184" s="2" t="n">
+      <c r="K184" s="2" t="b">
         <f aca="false">C184&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L184" s="2" t="n">
+      <c r="L184" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B184), ISNUMBER(C184), B184&lt;=C184)</f>
         <v>1</v>
       </c>
@@ -14655,15 +14718,15 @@
         <f aca="false">H185 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J185" s="2" t="n">
+      <c r="J185" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A185) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K185" s="2" t="n">
+      <c r="K185" s="2" t="b">
         <f aca="false">C185&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L185" s="2" t="n">
+      <c r="L185" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B185), ISNUMBER(C185), B185&lt;=C185)</f>
         <v>1</v>
       </c>
@@ -14701,15 +14764,15 @@
         <f aca="false">H186 + 0.25</f>
         <v>1.25</v>
       </c>
-      <c r="J186" s="2" t="n">
+      <c r="J186" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$493, A186) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K186" s="2" t="n">
+      <c r="K186" s="2" t="b">
         <f aca="false">C186&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L186" s="2" t="n">
+      <c r="L186" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B186), ISNUMBER(C186), B186&lt;=C186)</f>
         <v>1</v>
       </c>
@@ -14744,7 +14807,7 @@
   <dimension ref="A1:D186"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C97" activeCellId="1" sqref="E73:F157 C97"/>
+      <selection pane="topLeft" activeCell="C97" activeCellId="0" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17751,7 +17814,7 @@
   <dimension ref="A1:L186"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G97" activeCellId="1" sqref="E73:F157 G97"/>
+      <selection pane="topLeft" activeCell="G97" activeCellId="0" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18636,7 +18699,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B27)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="I27" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C27), ISNUMBER(D27), C27&lt;=D27)</f>
         <v>1</v>
       </c>
@@ -18668,7 +18731,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B28)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="I28" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C28), ISNUMBER(D28), C28&lt;=D28)</f>
         <v>1</v>
       </c>
@@ -18701,7 +18764,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B29)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="I29" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C29), ISNUMBER(D29), C29&lt;=D29)</f>
         <v>1</v>
       </c>
@@ -18734,7 +18797,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B30)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I30" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C30), ISNUMBER(D30), C30&lt;=D30)</f>
         <v>1</v>
       </c>
@@ -18767,7 +18830,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B31)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="I31" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C31), ISNUMBER(D31), C31&lt;=D31)</f>
         <v>1</v>
       </c>
@@ -18800,7 +18863,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B32)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I32" s="2" t="n">
+      <c r="I32" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C32), ISNUMBER(D32), C32&lt;=D32)</f>
         <v>1</v>
       </c>
@@ -18833,7 +18896,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B33)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I33" s="2" t="n">
+      <c r="I33" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C33), ISNUMBER(D33), C33&lt;=D33)</f>
         <v>1</v>
       </c>
@@ -18866,7 +18929,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B34)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I34" s="2" t="n">
+      <c r="I34" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C34), ISNUMBER(D34), C34&lt;=D34)</f>
         <v>1</v>
       </c>
@@ -18899,7 +18962,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B35)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I35" s="2" t="n">
+      <c r="I35" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C35), ISNUMBER(D35), C35&lt;=D35)</f>
         <v>1</v>
       </c>
@@ -18932,7 +18995,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B36)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I36" s="2" t="n">
+      <c r="I36" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C36), ISNUMBER(D36), C36&lt;=D36)</f>
         <v>1</v>
       </c>
@@ -18965,7 +19028,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B37)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I37" s="2" t="n">
+      <c r="I37" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C37), ISNUMBER(D37), C37&lt;=D37)</f>
         <v>1</v>
       </c>
@@ -18998,7 +19061,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B38)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I38" s="2" t="n">
+      <c r="I38" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C38), ISNUMBER(D38), C38&lt;=D38)</f>
         <v>1</v>
       </c>
@@ -19031,7 +19094,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B39)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I39" s="2" t="n">
+      <c r="I39" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C39), ISNUMBER(D39), C39&lt;=D39)</f>
         <v>1</v>
       </c>
@@ -19064,7 +19127,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B40)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I40" s="2" t="n">
+      <c r="I40" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C40), ISNUMBER(D40), C40&lt;=D40)</f>
         <v>1</v>
       </c>
@@ -19097,7 +19160,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B41)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I41" s="2" t="n">
+      <c r="I41" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C41), ISNUMBER(D41), C41&lt;=D41)</f>
         <v>1</v>
       </c>
@@ -19130,7 +19193,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B42)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I42" s="2" t="n">
+      <c r="I42" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C42), ISNUMBER(D42), C42&lt;=D42)</f>
         <v>1</v>
       </c>
@@ -19163,7 +19226,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B43)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I43" s="2" t="n">
+      <c r="I43" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C43), ISNUMBER(D43), C43&lt;=D43)</f>
         <v>1</v>
       </c>
@@ -19196,7 +19259,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B44)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I44" s="2" t="n">
+      <c r="I44" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C44), ISNUMBER(D44), C44&lt;=D44)</f>
         <v>1</v>
       </c>
@@ -19229,7 +19292,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B45)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I45" s="2" t="n">
+      <c r="I45" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C45), ISNUMBER(D45), C45&lt;=D45)</f>
         <v>1</v>
       </c>
@@ -19262,7 +19325,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B46)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I46" s="2" t="n">
+      <c r="I46" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C46), ISNUMBER(D46), C46&lt;=D46)</f>
         <v>1</v>
       </c>
@@ -19295,7 +19358,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B47)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I47" s="2" t="n">
+      <c r="I47" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C47), ISNUMBER(D47), C47&lt;=D47)</f>
         <v>1</v>
       </c>
@@ -19328,7 +19391,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B48)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I48" s="2" t="n">
+      <c r="I48" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C48), ISNUMBER(D48), C48&lt;=D48)</f>
         <v>1</v>
       </c>
@@ -19361,7 +19424,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B49)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I49" s="2" t="n">
+      <c r="I49" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C49), ISNUMBER(D49), C49&lt;=D49)</f>
         <v>1</v>
       </c>
@@ -19394,7 +19457,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B50)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I50" s="2" t="n">
+      <c r="I50" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C50), ISNUMBER(D50), C50&lt;=D50)</f>
         <v>1</v>
       </c>
@@ -19427,7 +19490,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B51)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I51" s="2" t="n">
+      <c r="I51" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C51), ISNUMBER(D51), C51&lt;=D51)</f>
         <v>1</v>
       </c>
@@ -19460,7 +19523,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B52)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I52" s="2" t="n">
+      <c r="I52" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C52), ISNUMBER(D52), C52&lt;=D52)</f>
         <v>1</v>
       </c>
@@ -19493,7 +19556,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B53)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I53" s="2" t="n">
+      <c r="I53" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C53), ISNUMBER(D53), C53&lt;=D53)</f>
         <v>1</v>
       </c>
@@ -19526,7 +19589,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B54)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I54" s="2" t="n">
+      <c r="I54" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C54), ISNUMBER(D54), C54&lt;=D54)</f>
         <v>1</v>
       </c>
@@ -19559,7 +19622,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B55)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I55" s="2" t="n">
+      <c r="I55" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C55), ISNUMBER(D55), C55&lt;=D55)</f>
         <v>1</v>
       </c>
@@ -19592,7 +19655,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B56)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I56" s="2" t="n">
+      <c r="I56" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C56), ISNUMBER(D56), C56&lt;=D56)</f>
         <v>1</v>
       </c>
@@ -19625,7 +19688,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B57)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I57" s="2" t="n">
+      <c r="I57" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C57), ISNUMBER(D57), C57&lt;=D57)</f>
         <v>1</v>
       </c>
@@ -19658,7 +19721,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B58)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I58" s="2" t="n">
+      <c r="I58" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C58), ISNUMBER(D58), C58&lt;=D58)</f>
         <v>1</v>
       </c>
@@ -19691,7 +19754,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B59)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I59" s="2" t="n">
+      <c r="I59" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C59), ISNUMBER(D59), C59&lt;=D59)</f>
         <v>1</v>
       </c>
@@ -19724,7 +19787,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B60)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I60" s="2" t="n">
+      <c r="I60" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C60), ISNUMBER(D60), C60&lt;=D60)</f>
         <v>1</v>
       </c>
@@ -19757,7 +19820,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B61)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I61" s="2" t="n">
+      <c r="I61" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C61), ISNUMBER(D61), C61&lt;=D61)</f>
         <v>1</v>
       </c>
@@ -19790,7 +19853,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B62)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I62" s="2" t="n">
+      <c r="I62" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C62), ISNUMBER(D62), C62&lt;=D62)</f>
         <v>1</v>
       </c>
@@ -19823,7 +19886,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B63)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I63" s="2" t="n">
+      <c r="I63" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C63), ISNUMBER(D63), C63&lt;=D63)</f>
         <v>1</v>
       </c>
@@ -19856,7 +19919,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B64)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I64" s="2" t="n">
+      <c r="I64" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C64), ISNUMBER(D64), C64&lt;=D64)</f>
         <v>1</v>
       </c>
@@ -19889,7 +19952,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B65)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I65" s="2" t="n">
+      <c r="I65" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C65), ISNUMBER(D65), C65&lt;=D65)</f>
         <v>1</v>
       </c>
@@ -19922,7 +19985,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B66)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I66" s="2" t="n">
+      <c r="I66" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C66), ISNUMBER(D66), C66&lt;=D66)</f>
         <v>1</v>
       </c>
@@ -19955,7 +20018,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B67)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I67" s="2" t="n">
+      <c r="I67" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C67), ISNUMBER(D67), C67&lt;=D67)</f>
         <v>1</v>
       </c>
@@ -19988,7 +20051,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B68)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I68" s="2" t="n">
+      <c r="I68" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C68), ISNUMBER(D68), C68&lt;=D68)</f>
         <v>1</v>
       </c>
@@ -20021,7 +20084,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B69)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I69" s="2" t="n">
+      <c r="I69" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C69), ISNUMBER(D69), C69&lt;=D69)</f>
         <v>1</v>
       </c>
@@ -20054,7 +20117,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B70)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I70" s="2" t="n">
+      <c r="I70" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C70), ISNUMBER(D70), C70&lt;=D70)</f>
         <v>1</v>
       </c>
@@ -20087,7 +20150,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B71)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I71" s="2" t="n">
+      <c r="I71" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C71), ISNUMBER(D71), C71&lt;=D71)</f>
         <v>1</v>
       </c>
@@ -20120,7 +20183,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B72)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I72" s="2" t="n">
+      <c r="I72" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C72), ISNUMBER(D72), C72&lt;=D72)</f>
         <v>1</v>
       </c>
@@ -20153,7 +20216,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B73)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I73" s="2" t="n">
+      <c r="I73" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C73), ISNUMBER(D73), C73&lt;=D73)</f>
         <v>1</v>
       </c>
@@ -20186,7 +20249,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B74)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I74" s="2" t="n">
+      <c r="I74" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C74), ISNUMBER(D74), C74&lt;=D74)</f>
         <v>1</v>
       </c>
@@ -20219,7 +20282,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B75)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I75" s="2" t="n">
+      <c r="I75" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C75), ISNUMBER(D75), C75&lt;=D75)</f>
         <v>1</v>
       </c>
@@ -20252,7 +20315,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B76)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I76" s="2" t="n">
+      <c r="I76" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C76), ISNUMBER(D76), C76&lt;=D76)</f>
         <v>1</v>
       </c>
@@ -20285,7 +20348,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B77)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I77" s="2" t="n">
+      <c r="I77" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C77), ISNUMBER(D77), C77&lt;=D77)</f>
         <v>1</v>
       </c>
@@ -20318,7 +20381,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B78)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I78" s="2" t="n">
+      <c r="I78" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C78), ISNUMBER(D78), C78&lt;=D78)</f>
         <v>1</v>
       </c>
@@ -20351,7 +20414,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B79)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I79" s="2" t="n">
+      <c r="I79" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C79), ISNUMBER(D79), C79&lt;=D79)</f>
         <v>1</v>
       </c>
@@ -20384,7 +20447,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B80)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I80" s="2" t="n">
+      <c r="I80" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C80), ISNUMBER(D80), C80&lt;=D80)</f>
         <v>1</v>
       </c>
@@ -20417,7 +20480,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B81)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I81" s="2" t="n">
+      <c r="I81" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C81), ISNUMBER(D81), C81&lt;=D81)</f>
         <v>1</v>
       </c>
@@ -20450,7 +20513,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B82)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I82" s="2" t="n">
+      <c r="I82" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C82), ISNUMBER(D82), C82&lt;=D82)</f>
         <v>1</v>
       </c>
@@ -20483,7 +20546,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B83)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I83" s="2" t="n">
+      <c r="I83" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C83), ISNUMBER(D83), C83&lt;=D83)</f>
         <v>1</v>
       </c>
@@ -20516,7 +20579,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B84)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I84" s="2" t="n">
+      <c r="I84" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C84), ISNUMBER(D84), C84&lt;=D84)</f>
         <v>1</v>
       </c>
@@ -20549,7 +20612,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B85)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I85" s="2" t="n">
+      <c r="I85" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C85), ISNUMBER(D85), C85&lt;=D85)</f>
         <v>1</v>
       </c>
@@ -20582,7 +20645,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B86)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I86" s="2" t="n">
+      <c r="I86" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C86), ISNUMBER(D86), C86&lt;=D86)</f>
         <v>1</v>
       </c>
@@ -20615,7 +20678,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B87)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I87" s="2" t="n">
+      <c r="I87" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C87), ISNUMBER(D87), C87&lt;=D87)</f>
         <v>1</v>
       </c>
@@ -20648,7 +20711,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B88)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I88" s="2" t="n">
+      <c r="I88" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C88), ISNUMBER(D88), C88&lt;=D88)</f>
         <v>1</v>
       </c>
@@ -20681,7 +20744,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B89)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I89" s="2" t="n">
+      <c r="I89" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C89), ISNUMBER(D89), C89&lt;=D89)</f>
         <v>1</v>
       </c>
@@ -20714,7 +20777,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B90)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I90" s="2" t="n">
+      <c r="I90" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C90), ISNUMBER(D90), C90&lt;=D90)</f>
         <v>1</v>
       </c>
@@ -20747,7 +20810,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B91)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I91" s="2" t="n">
+      <c r="I91" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C91), ISNUMBER(D91), C91&lt;=D91)</f>
         <v>1</v>
       </c>
@@ -20780,7 +20843,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B92)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I92" s="2" t="n">
+      <c r="I92" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C92), ISNUMBER(D92), C92&lt;=D92)</f>
         <v>1</v>
       </c>
@@ -20813,7 +20876,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B93)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I93" s="2" t="n">
+      <c r="I93" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C93), ISNUMBER(D93), C93&lt;=D93)</f>
         <v>1</v>
       </c>
@@ -20846,7 +20909,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B94)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I94" s="2" t="n">
+      <c r="I94" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C94), ISNUMBER(D94), C94&lt;=D94)</f>
         <v>1</v>
       </c>
@@ -20879,7 +20942,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B95)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I95" s="2" t="n">
+      <c r="I95" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C95), ISNUMBER(D95), C95&lt;=D95)</f>
         <v>1</v>
       </c>
@@ -20912,7 +20975,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B96)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I96" s="2" t="n">
+      <c r="I96" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C96), ISNUMBER(D96), C96&lt;=D96)</f>
         <v>1</v>
       </c>
@@ -20945,7 +21008,7 @@
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B97)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I97" s="2" t="n">
+      <c r="I97" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C97), ISNUMBER(D97), C97&lt;=D97)</f>
         <v>1</v>
       </c>
@@ -20970,15 +21033,15 @@
       <c r="F98" s="24" t="n">
         <v>0.5</v>
       </c>
-      <c r="G98" s="2" t="n">
+      <c r="G98" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A98) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H98" s="2" t="n">
+      <c r="H98" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B98)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I98" s="2" t="n">
+      <c r="I98" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C98), ISNUMBER(D98), C98&lt;=D98)</f>
         <v>1</v>
       </c>
@@ -21003,15 +21066,15 @@
       <c r="F99" s="24" t="n">
         <v>1.75</v>
       </c>
-      <c r="G99" s="2" t="n">
+      <c r="G99" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A99) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H99" s="2" t="n">
+      <c r="H99" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B99)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I99" s="2" t="n">
+      <c r="I99" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C99), ISNUMBER(D99), C99&lt;=D99)</f>
         <v>1</v>
       </c>
@@ -21035,15 +21098,15 @@
       <c r="F100" s="24" t="n">
         <v>6.25</v>
       </c>
-      <c r="G100" s="2" t="n">
+      <c r="G100" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A100) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H100" s="2" t="n">
+      <c r="H100" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B100)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I100" s="2" t="n">
+      <c r="I100" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C100), ISNUMBER(D100), C100&lt;=D100)</f>
         <v>1</v>
       </c>
@@ -21067,15 +21130,15 @@
       <c r="F101" s="24" t="n">
         <v>0.5</v>
       </c>
-      <c r="G101" s="2" t="n">
+      <c r="G101" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A101) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H101" s="2" t="n">
+      <c r="H101" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B101)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I101" s="2" t="n">
+      <c r="I101" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C101), ISNUMBER(D101), C101&lt;=D101)</f>
         <v>1</v>
       </c>
@@ -21099,15 +21162,15 @@
       <c r="F102" s="24" t="n">
         <v>1.75</v>
       </c>
-      <c r="G102" s="2" t="n">
+      <c r="G102" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A102) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H102" s="2" t="n">
+      <c r="H102" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B102)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I102" s="2" t="n">
+      <c r="I102" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C102), ISNUMBER(D102), C102&lt;=D102)</f>
         <v>1</v>
       </c>
@@ -21131,15 +21194,15 @@
       <c r="F103" s="24" t="n">
         <v>2.25</v>
       </c>
-      <c r="G103" s="2" t="n">
+      <c r="G103" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A103) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H103" s="2" t="n">
+      <c r="H103" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B103)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I103" s="2" t="n">
+      <c r="I103" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C103), ISNUMBER(D103), C103&lt;=D103)</f>
         <v>1</v>
       </c>
@@ -21163,15 +21226,15 @@
       <c r="F104" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G104" s="2" t="n">
+      <c r="G104" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A104) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H104" s="2" t="n">
+      <c r="H104" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B104)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I104" s="2" t="n">
+      <c r="I104" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C104), ISNUMBER(D104), C104&lt;=D104)</f>
         <v>1</v>
       </c>
@@ -21195,15 +21258,15 @@
       <c r="F105" s="24" t="n">
         <v>1.5</v>
       </c>
-      <c r="G105" s="2" t="n">
+      <c r="G105" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A105) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H105" s="2" t="n">
+      <c r="H105" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B105)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I105" s="2" t="n">
+      <c r="I105" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C105), ISNUMBER(D105), C105&lt;=D105)</f>
         <v>1</v>
       </c>
@@ -21227,15 +21290,15 @@
       <c r="F106" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G106" s="2" t="n">
+      <c r="G106" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A106) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H106" s="2" t="n">
+      <c r="H106" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B106)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I106" s="2" t="n">
+      <c r="I106" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C106), ISNUMBER(D106), C106&lt;=D106)</f>
         <v>1</v>
       </c>
@@ -21259,15 +21322,15 @@
       <c r="F107" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G107" s="2" t="n">
+      <c r="G107" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A107) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H107" s="2" t="n">
+      <c r="H107" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B107)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I107" s="2" t="n">
+      <c r="I107" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C107), ISNUMBER(D107), C107&lt;=D107)</f>
         <v>1</v>
       </c>
@@ -21291,15 +21354,15 @@
       <c r="F108" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G108" s="2" t="n">
+      <c r="G108" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A108) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H108" s="2" t="n">
+      <c r="H108" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B108)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I108" s="2" t="n">
+      <c r="I108" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C108), ISNUMBER(D108), C108&lt;=D108)</f>
         <v>1</v>
       </c>
@@ -21323,15 +21386,15 @@
       <c r="F109" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G109" s="2" t="n">
+      <c r="G109" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A109) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H109" s="2" t="n">
+      <c r="H109" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B109)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I109" s="2" t="n">
+      <c r="I109" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C109), ISNUMBER(D109), C109&lt;=D109)</f>
         <v>1</v>
       </c>
@@ -21355,15 +21418,15 @@
       <c r="F110" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G110" s="2" t="n">
+      <c r="G110" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A110) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H110" s="2" t="n">
+      <c r="H110" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B110)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I110" s="2" t="n">
+      <c r="I110" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C110), ISNUMBER(D110), C110&lt;=D110)</f>
         <v>1</v>
       </c>
@@ -21387,15 +21450,15 @@
       <c r="F111" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G111" s="2" t="n">
+      <c r="G111" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A111) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H111" s="2" t="n">
+      <c r="H111" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B111)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I111" s="2" t="n">
+      <c r="I111" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C111), ISNUMBER(D111), C111&lt;=D111)</f>
         <v>1</v>
       </c>
@@ -21419,15 +21482,15 @@
       <c r="F112" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G112" s="2" t="n">
+      <c r="G112" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A112) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H112" s="2" t="n">
+      <c r="H112" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B112)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I112" s="2" t="n">
+      <c r="I112" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C112), ISNUMBER(D112), C112&lt;=D112)</f>
         <v>1</v>
       </c>
@@ -21451,15 +21514,15 @@
       <c r="F113" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G113" s="2" t="n">
+      <c r="G113" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A113) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H113" s="2" t="n">
+      <c r="H113" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B113)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I113" s="2" t="n">
+      <c r="I113" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C113), ISNUMBER(D113), C113&lt;=D113)</f>
         <v>1</v>
       </c>
@@ -21483,15 +21546,15 @@
       <c r="F114" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G114" s="2" t="n">
+      <c r="G114" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A114) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H114" s="2" t="n">
+      <c r="H114" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B114)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I114" s="2" t="n">
+      <c r="I114" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C114), ISNUMBER(D114), C114&lt;=D114)</f>
         <v>1</v>
       </c>
@@ -21515,15 +21578,15 @@
       <c r="F115" s="24" t="n">
         <v>0.5</v>
       </c>
-      <c r="G115" s="2" t="n">
+      <c r="G115" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A115) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H115" s="2" t="n">
+      <c r="H115" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B115)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I115" s="2" t="n">
+      <c r="I115" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C115), ISNUMBER(D115), C115&lt;=D115)</f>
         <v>1</v>
       </c>
@@ -21547,15 +21610,15 @@
       <c r="F116" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G116" s="2" t="n">
+      <c r="G116" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A116) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H116" s="2" t="n">
+      <c r="H116" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B116)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I116" s="2" t="n">
+      <c r="I116" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C116), ISNUMBER(D116), C116&lt;=D116)</f>
         <v>1</v>
       </c>
@@ -21579,15 +21642,15 @@
       <c r="F117" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G117" s="2" t="n">
+      <c r="G117" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A117) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H117" s="2" t="n">
+      <c r="H117" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B117)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I117" s="2" t="n">
+      <c r="I117" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C117), ISNUMBER(D117), C117&lt;=D117)</f>
         <v>1</v>
       </c>
@@ -21611,15 +21674,15 @@
       <c r="F118" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G118" s="2" t="n">
+      <c r="G118" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A118) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H118" s="2" t="n">
+      <c r="H118" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B118)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I118" s="2" t="n">
+      <c r="I118" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C118), ISNUMBER(D118), C118&lt;=D118)</f>
         <v>1</v>
       </c>
@@ -21643,15 +21706,15 @@
       <c r="F119" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G119" s="2" t="n">
+      <c r="G119" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A119) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H119" s="2" t="n">
+      <c r="H119" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B119)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I119" s="2" t="n">
+      <c r="I119" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C119), ISNUMBER(D119), C119&lt;=D119)</f>
         <v>1</v>
       </c>
@@ -21675,15 +21738,15 @@
       <c r="F120" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G120" s="2" t="n">
+      <c r="G120" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A120) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H120" s="2" t="n">
+      <c r="H120" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B120)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I120" s="2" t="n">
+      <c r="I120" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C120), ISNUMBER(D120), C120&lt;=D120)</f>
         <v>1</v>
       </c>
@@ -21707,15 +21770,15 @@
       <c r="F121" s="24" t="n">
         <v>1.75</v>
       </c>
-      <c r="G121" s="2" t="n">
+      <c r="G121" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A121) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H121" s="2" t="n">
+      <c r="H121" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B121)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I121" s="2" t="n">
+      <c r="I121" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C121), ISNUMBER(D121), C121&lt;=D121)</f>
         <v>1</v>
       </c>
@@ -21739,15 +21802,15 @@
       <c r="F122" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G122" s="2" t="n">
+      <c r="G122" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A122) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H122" s="2" t="n">
+      <c r="H122" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B122)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I122" s="2" t="n">
+      <c r="I122" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C122), ISNUMBER(D122), C122&lt;=D122)</f>
         <v>1</v>
       </c>
@@ -21771,15 +21834,15 @@
       <c r="F123" s="24" t="n">
         <v>0.5</v>
       </c>
-      <c r="G123" s="2" t="n">
+      <c r="G123" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A123) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H123" s="2" t="n">
+      <c r="H123" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B123)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I123" s="2" t="n">
+      <c r="I123" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C123), ISNUMBER(D123), C123&lt;=D123)</f>
         <v>1</v>
       </c>
@@ -21803,15 +21866,15 @@
       <c r="F124" s="24" t="n">
         <v>0.75</v>
       </c>
-      <c r="G124" s="2" t="n">
+      <c r="G124" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A124) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H124" s="2" t="n">
+      <c r="H124" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B124)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I124" s="2" t="n">
+      <c r="I124" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C124), ISNUMBER(D124), C124&lt;=D124)</f>
         <v>1</v>
       </c>
@@ -21835,15 +21898,15 @@
       <c r="F125" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G125" s="2" t="n">
+      <c r="G125" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A125) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H125" s="2" t="n">
+      <c r="H125" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B125)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I125" s="2" t="n">
+      <c r="I125" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C125), ISNUMBER(D125), C125&lt;=D125)</f>
         <v>1</v>
       </c>
@@ -21867,15 +21930,15 @@
       <c r="F126" s="24" t="n">
         <v>0.5</v>
       </c>
-      <c r="G126" s="2" t="n">
+      <c r="G126" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A126) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H126" s="2" t="n">
+      <c r="H126" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B126)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I126" s="2" t="n">
+      <c r="I126" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C126), ISNUMBER(D126), C126&lt;=D126)</f>
         <v>1</v>
       </c>
@@ -21899,15 +21962,15 @@
       <c r="F127" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G127" s="2" t="n">
+      <c r="G127" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A127) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H127" s="2" t="n">
+      <c r="H127" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B127)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I127" s="2" t="n">
+      <c r="I127" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C127), ISNUMBER(D127), C127&lt;=D127)</f>
         <v>1</v>
       </c>
@@ -21931,15 +21994,15 @@
       <c r="F128" s="24" t="n">
         <v>0.5</v>
       </c>
-      <c r="G128" s="2" t="n">
+      <c r="G128" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A128) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H128" s="2" t="n">
+      <c r="H128" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B128)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I128" s="2" t="n">
+      <c r="I128" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C128), ISNUMBER(D128), C128&lt;=D128)</f>
         <v>1</v>
       </c>
@@ -21963,15 +22026,15 @@
       <c r="F129" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G129" s="2" t="n">
+      <c r="G129" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A129) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H129" s="2" t="n">
+      <c r="H129" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B129)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I129" s="2" t="n">
+      <c r="I129" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C129), ISNUMBER(D129), C129&lt;=D129)</f>
         <v>1</v>
       </c>
@@ -21995,15 +22058,15 @@
       <c r="F130" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G130" s="2" t="n">
+      <c r="G130" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A130) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H130" s="2" t="n">
+      <c r="H130" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B130)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I130" s="2" t="n">
+      <c r="I130" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C130), ISNUMBER(D130), C130&lt;=D130)</f>
         <v>1</v>
       </c>
@@ -22027,15 +22090,15 @@
       <c r="F131" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G131" s="2" t="n">
+      <c r="G131" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A131) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H131" s="2" t="n">
+      <c r="H131" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B131)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I131" s="2" t="n">
+      <c r="I131" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C131), ISNUMBER(D131), C131&lt;=D131)</f>
         <v>1</v>
       </c>
@@ -22059,15 +22122,15 @@
       <c r="F132" s="24" t="n">
         <v>0.75</v>
       </c>
-      <c r="G132" s="2" t="n">
+      <c r="G132" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A132) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H132" s="2" t="n">
+      <c r="H132" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B132)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I132" s="2" t="n">
+      <c r="I132" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C132), ISNUMBER(D132), C132&lt;=D132)</f>
         <v>1</v>
       </c>
@@ -22091,15 +22154,15 @@
       <c r="F133" s="24" t="n">
         <v>0.75</v>
       </c>
-      <c r="G133" s="2" t="n">
+      <c r="G133" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A133) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H133" s="2" t="n">
+      <c r="H133" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B133)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I133" s="2" t="n">
+      <c r="I133" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C133), ISNUMBER(D133), C133&lt;=D133)</f>
         <v>1</v>
       </c>
@@ -22123,15 +22186,15 @@
       <c r="F134" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G134" s="2" t="n">
+      <c r="G134" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A134) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H134" s="2" t="n">
+      <c r="H134" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B134)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I134" s="2" t="n">
+      <c r="I134" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C134), ISNUMBER(D134), C134&lt;=D134)</f>
         <v>1</v>
       </c>
@@ -22155,15 +22218,15 @@
       <c r="F135" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G135" s="2" t="n">
+      <c r="G135" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A135) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H135" s="2" t="n">
+      <c r="H135" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B135)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I135" s="2" t="n">
+      <c r="I135" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C135), ISNUMBER(D135), C135&lt;=D135)</f>
         <v>1</v>
       </c>
@@ -22187,15 +22250,15 @@
       <c r="F136" s="24" t="n">
         <v>0.75</v>
       </c>
-      <c r="G136" s="2" t="n">
+      <c r="G136" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A136) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H136" s="2" t="n">
+      <c r="H136" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B136)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I136" s="2" t="n">
+      <c r="I136" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C136), ISNUMBER(D136), C136&lt;=D136)</f>
         <v>1</v>
       </c>
@@ -22219,15 +22282,15 @@
       <c r="F137" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G137" s="2" t="n">
+      <c r="G137" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A137) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H137" s="2" t="n">
+      <c r="H137" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B137)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I137" s="2" t="n">
+      <c r="I137" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C137), ISNUMBER(D137), C137&lt;=D137)</f>
         <v>1</v>
       </c>
@@ -22251,15 +22314,15 @@
       <c r="F138" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G138" s="2" t="n">
+      <c r="G138" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A138) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H138" s="2" t="n">
+      <c r="H138" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B138)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I138" s="2" t="n">
+      <c r="I138" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C138), ISNUMBER(D138), C138&lt;=D138)</f>
         <v>1</v>
       </c>
@@ -22283,15 +22346,15 @@
       <c r="F139" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G139" s="2" t="n">
+      <c r="G139" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A139) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H139" s="2" t="n">
+      <c r="H139" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B139)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I139" s="2" t="n">
+      <c r="I139" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C139), ISNUMBER(D139), C139&lt;=D139)</f>
         <v>1</v>
       </c>
@@ -22315,15 +22378,15 @@
       <c r="F140" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G140" s="2" t="n">
+      <c r="G140" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A140) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H140" s="2" t="n">
+      <c r="H140" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B140)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I140" s="2" t="n">
+      <c r="I140" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C140), ISNUMBER(D140), C140&lt;=D140)</f>
         <v>1</v>
       </c>
@@ -22347,15 +22410,15 @@
       <c r="F141" s="24" t="n">
         <v>0.5</v>
       </c>
-      <c r="G141" s="2" t="n">
+      <c r="G141" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A141) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H141" s="2" t="n">
+      <c r="H141" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B141)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I141" s="2" t="n">
+      <c r="I141" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C141), ISNUMBER(D141), C141&lt;=D141)</f>
         <v>1</v>
       </c>
@@ -22379,15 +22442,15 @@
       <c r="F142" s="24" t="n">
         <v>2.5</v>
       </c>
-      <c r="G142" s="2" t="n">
+      <c r="G142" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A142) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H142" s="2" t="n">
+      <c r="H142" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B142)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I142" s="2" t="n">
+      <c r="I142" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C142), ISNUMBER(D142), C142&lt;=D142)</f>
         <v>1</v>
       </c>
@@ -22411,15 +22474,15 @@
       <c r="F143" s="24" t="n">
         <v>0.75</v>
       </c>
-      <c r="G143" s="2" t="n">
+      <c r="G143" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A143) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H143" s="2" t="n">
+      <c r="H143" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B143)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I143" s="2" t="n">
+      <c r="I143" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C143), ISNUMBER(D143), C143&lt;=D143)</f>
         <v>1</v>
       </c>
@@ -22443,15 +22506,15 @@
       <c r="F144" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G144" s="2" t="n">
+      <c r="G144" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A144) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H144" s="2" t="n">
+      <c r="H144" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B144)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I144" s="2" t="n">
+      <c r="I144" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C144), ISNUMBER(D144), C144&lt;=D144)</f>
         <v>1</v>
       </c>
@@ -22475,15 +22538,15 @@
       <c r="F145" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="G145" s="2" t="n">
+      <c r="G145" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A145) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H145" s="2" t="n">
+      <c r="H145" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B145)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I145" s="2" t="n">
+      <c r="I145" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C145), ISNUMBER(D145), C145&lt;=D145)</f>
         <v>1</v>
       </c>
@@ -22507,15 +22570,15 @@
       <c r="F146" s="24" t="n">
         <v>0.5</v>
       </c>
-      <c r="G146" s="2" t="n">
+      <c r="G146" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A146) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H146" s="2" t="n">
+      <c r="H146" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B146)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I146" s="2" t="n">
+      <c r="I146" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C146), ISNUMBER(D146), C146&lt;=D146)</f>
         <v>1</v>
       </c>
@@ -22539,15 +22602,15 @@
       <c r="F147" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G147" s="2" t="n">
+      <c r="G147" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A147) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H147" s="2" t="n">
+      <c r="H147" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B147)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I147" s="2" t="n">
+      <c r="I147" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C147), ISNUMBER(D147), C147&lt;=D147)</f>
         <v>1</v>
       </c>
@@ -22571,15 +22634,15 @@
       <c r="F148" s="24" t="n">
         <v>1.25</v>
       </c>
-      <c r="G148" s="2" t="n">
+      <c r="G148" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A148) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H148" s="2" t="n">
+      <c r="H148" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B148)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I148" s="2" t="n">
+      <c r="I148" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C148), ISNUMBER(D148), C148&lt;=D148)</f>
         <v>1</v>
       </c>
@@ -22603,15 +22666,15 @@
       <c r="F149" s="24" t="n">
         <v>0.75</v>
       </c>
-      <c r="G149" s="2" t="n">
+      <c r="G149" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A149) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H149" s="2" t="n">
+      <c r="H149" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B149)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I149" s="2" t="n">
+      <c r="I149" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C149), ISNUMBER(D149), C149&lt;=D149)</f>
         <v>1</v>
       </c>
@@ -22635,15 +22698,15 @@
       <c r="F150" s="24" t="n">
         <v>2.25</v>
       </c>
-      <c r="G150" s="2" t="n">
+      <c r="G150" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A150) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H150" s="2" t="n">
+      <c r="H150" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B150)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I150" s="2" t="n">
+      <c r="I150" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C150), ISNUMBER(D150), C150&lt;=D150)</f>
         <v>1</v>
       </c>
@@ -22667,15 +22730,15 @@
       <c r="F151" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G151" s="2" t="n">
+      <c r="G151" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A151) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H151" s="2" t="n">
+      <c r="H151" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B151)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I151" s="2" t="n">
+      <c r="I151" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C151), ISNUMBER(D151), C151&lt;=D151)</f>
         <v>1</v>
       </c>
@@ -22699,15 +22762,15 @@
       <c r="F152" s="24" t="n">
         <v>0.75</v>
       </c>
-      <c r="G152" s="2" t="n">
+      <c r="G152" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A152) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H152" s="2" t="n">
+      <c r="H152" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B152)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I152" s="2" t="n">
+      <c r="I152" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C152), ISNUMBER(D152), C152&lt;=D152)</f>
         <v>1</v>
       </c>
@@ -22731,15 +22794,15 @@
       <c r="F153" s="24" t="n">
         <v>5.5</v>
       </c>
-      <c r="G153" s="2" t="n">
+      <c r="G153" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A153) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H153" s="2" t="n">
+      <c r="H153" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B153)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I153" s="2" t="n">
+      <c r="I153" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C153), ISNUMBER(D153), C153&lt;=D153)</f>
         <v>1</v>
       </c>
@@ -22763,15 +22826,15 @@
       <c r="F154" s="24" t="n">
         <v>0.5</v>
       </c>
-      <c r="G154" s="2" t="n">
+      <c r="G154" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A154) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H154" s="2" t="n">
+      <c r="H154" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B154)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I154" s="2" t="n">
+      <c r="I154" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C154), ISNUMBER(D154), C154&lt;=D154)</f>
         <v>1</v>
       </c>
@@ -22795,15 +22858,15 @@
       <c r="F155" s="24" t="n">
         <v>1.75</v>
       </c>
-      <c r="G155" s="2" t="n">
+      <c r="G155" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A155) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H155" s="2" t="n">
+      <c r="H155" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B155)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I155" s="2" t="n">
+      <c r="I155" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C155), ISNUMBER(D155), C155&lt;=D155)</f>
         <v>1</v>
       </c>
@@ -22827,15 +22890,15 @@
       <c r="F156" s="24" t="n">
         <v>1.25</v>
       </c>
-      <c r="G156" s="2" t="n">
+      <c r="G156" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A156) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H156" s="2" t="n">
+      <c r="H156" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B156)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I156" s="2" t="n">
+      <c r="I156" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C156), ISNUMBER(D156), C156&lt;=D156)</f>
         <v>1</v>
       </c>
@@ -22859,15 +22922,15 @@
       <c r="F157" s="24" t="n">
         <v>0.5</v>
       </c>
-      <c r="G157" s="2" t="n">
+      <c r="G157" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A157) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H157" s="2" t="n">
+      <c r="H157" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B157)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I157" s="2" t="n">
+      <c r="I157" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C157), ISNUMBER(D157), C157&lt;=D157)</f>
         <v>1</v>
       </c>
@@ -22891,15 +22954,15 @@
       <c r="F158" s="24" t="n">
         <v>1.25</v>
       </c>
-      <c r="G158" s="2" t="n">
+      <c r="G158" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A158) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H158" s="2" t="n">
+      <c r="H158" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B158)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I158" s="2" t="n">
+      <c r="I158" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C158), ISNUMBER(D158), C158&lt;=D158)</f>
         <v>1</v>
       </c>
@@ -22923,15 +22986,15 @@
       <c r="F159" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G159" s="2" t="n">
+      <c r="G159" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A159) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H159" s="2" t="n">
+      <c r="H159" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B159)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I159" s="2" t="n">
+      <c r="I159" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C159), ISNUMBER(D159), C159&lt;=D159)</f>
         <v>1</v>
       </c>
@@ -22955,15 +23018,15 @@
       <c r="F160" s="24" t="n">
         <v>1.75</v>
       </c>
-      <c r="G160" s="2" t="n">
+      <c r="G160" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A160) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H160" s="2" t="n">
+      <c r="H160" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B160)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I160" s="2" t="n">
+      <c r="I160" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C160), ISNUMBER(D160), C160&lt;=D160)</f>
         <v>1</v>
       </c>
@@ -22987,15 +23050,15 @@
       <c r="F161" s="24" t="n">
         <v>0.5</v>
       </c>
-      <c r="G161" s="2" t="n">
+      <c r="G161" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A161) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H161" s="2" t="n">
+      <c r="H161" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B161)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I161" s="2" t="n">
+      <c r="I161" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C161), ISNUMBER(D161), C161&lt;=D161)</f>
         <v>1</v>
       </c>
@@ -23019,15 +23082,15 @@
       <c r="F162" s="24" t="n">
         <v>2.25</v>
       </c>
-      <c r="G162" s="2" t="n">
+      <c r="G162" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A162) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H162" s="2" t="n">
+      <c r="H162" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B162)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I162" s="2" t="n">
+      <c r="I162" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C162), ISNUMBER(D162), C162&lt;=D162)</f>
         <v>1</v>
       </c>
@@ -23051,15 +23114,15 @@
       <c r="F163" s="24" t="n">
         <v>0.5</v>
       </c>
-      <c r="G163" s="2" t="n">
+      <c r="G163" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A163) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H163" s="2" t="n">
+      <c r="H163" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B163)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I163" s="2" t="n">
+      <c r="I163" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C163), ISNUMBER(D163), C163&lt;=D163)</f>
         <v>1</v>
       </c>
@@ -23083,15 +23146,15 @@
       <c r="F164" s="24" t="n">
         <v>2.75</v>
       </c>
-      <c r="G164" s="2" t="n">
+      <c r="G164" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A164) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H164" s="2" t="n">
+      <c r="H164" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B164)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I164" s="2" t="n">
+      <c r="I164" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C164), ISNUMBER(D164), C164&lt;=D164)</f>
         <v>1</v>
       </c>
@@ -23115,15 +23178,15 @@
       <c r="F165" s="24" t="n">
         <v>0.5</v>
       </c>
-      <c r="G165" s="2" t="n">
+      <c r="G165" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A165) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H165" s="2" t="n">
+      <c r="H165" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B165)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I165" s="2" t="n">
+      <c r="I165" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C165), ISNUMBER(D165), C165&lt;=D165)</f>
         <v>1</v>
       </c>
@@ -23147,15 +23210,15 @@
       <c r="F166" s="24" t="n">
         <v>2.75</v>
       </c>
-      <c r="G166" s="2" t="n">
+      <c r="G166" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A166) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H166" s="2" t="n">
+      <c r="H166" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B166)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I166" s="2" t="n">
+      <c r="I166" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C166), ISNUMBER(D166), C166&lt;=D166)</f>
         <v>1</v>
       </c>
@@ -23179,15 +23242,15 @@
       <c r="F167" s="24" t="n">
         <v>0.5</v>
       </c>
-      <c r="G167" s="2" t="n">
+      <c r="G167" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A167) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H167" s="2" t="n">
+      <c r="H167" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B167)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I167" s="2" t="n">
+      <c r="I167" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C167), ISNUMBER(D167), C167&lt;=D167)</f>
         <v>1</v>
       </c>
@@ -23211,15 +23274,15 @@
       <c r="F168" s="24" t="n">
         <v>2.25</v>
       </c>
-      <c r="G168" s="2" t="n">
+      <c r="G168" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A168) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H168" s="2" t="n">
+      <c r="H168" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B168)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I168" s="2" t="n">
+      <c r="I168" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C168), ISNUMBER(D168), C168&lt;=D168)</f>
         <v>1</v>
       </c>
@@ -23243,15 +23306,15 @@
       <c r="F169" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G169" s="2" t="n">
+      <c r="G169" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A169) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H169" s="2" t="n">
+      <c r="H169" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B169)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I169" s="2" t="n">
+      <c r="I169" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C169), ISNUMBER(D169), C169&lt;=D169)</f>
         <v>1</v>
       </c>
@@ -23275,15 +23338,15 @@
       <c r="F170" s="24" t="n">
         <v>1.75</v>
       </c>
-      <c r="G170" s="2" t="n">
+      <c r="G170" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A170) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H170" s="2" t="n">
+      <c r="H170" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B170)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I170" s="2" t="n">
+      <c r="I170" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C170), ISNUMBER(D170), C170&lt;=D170)</f>
         <v>1</v>
       </c>
@@ -23307,15 +23370,15 @@
       <c r="F171" s="24" t="n">
         <v>0.5</v>
       </c>
-      <c r="G171" s="2" t="n">
+      <c r="G171" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A171) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H171" s="2" t="n">
+      <c r="H171" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B171)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I171" s="2" t="n">
+      <c r="I171" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C171), ISNUMBER(D171), C171&lt;=D171)</f>
         <v>1</v>
       </c>
@@ -23339,15 +23402,15 @@
       <c r="F172" s="24" t="n">
         <v>2.75</v>
       </c>
-      <c r="G172" s="2" t="n">
+      <c r="G172" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A172) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H172" s="2" t="n">
+      <c r="H172" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B172)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I172" s="2" t="n">
+      <c r="I172" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C172), ISNUMBER(D172), C172&lt;=D172)</f>
         <v>1</v>
       </c>
@@ -23371,15 +23434,15 @@
       <c r="F173" s="24" t="n">
         <v>2.5</v>
       </c>
-      <c r="G173" s="2" t="n">
+      <c r="G173" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A173) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H173" s="2" t="n">
+      <c r="H173" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B173)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I173" s="2" t="n">
+      <c r="I173" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C173), ISNUMBER(D173), C173&lt;=D173)</f>
         <v>1</v>
       </c>
@@ -23403,15 +23466,15 @@
       <c r="F174" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G174" s="2" t="n">
+      <c r="G174" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A174) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H174" s="2" t="n">
+      <c r="H174" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B174)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I174" s="2" t="n">
+      <c r="I174" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C174), ISNUMBER(D174), C174&lt;=D174)</f>
         <v>1</v>
       </c>
@@ -23435,15 +23498,15 @@
       <c r="F175" s="24" t="n">
         <v>1.75</v>
       </c>
-      <c r="G175" s="2" t="n">
+      <c r="G175" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A175) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H175" s="2" t="n">
+      <c r="H175" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B175)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I175" s="2" t="n">
+      <c r="I175" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C175), ISNUMBER(D175), C175&lt;=D175)</f>
         <v>1</v>
       </c>
@@ -23467,15 +23530,15 @@
       <c r="F176" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G176" s="2" t="n">
+      <c r="G176" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A176) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H176" s="2" t="n">
+      <c r="H176" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B176)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I176" s="2" t="n">
+      <c r="I176" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C176), ISNUMBER(D176), C176&lt;=D176)</f>
         <v>1</v>
       </c>
@@ -23499,15 +23562,15 @@
       <c r="F177" s="24" t="n">
         <v>1.5</v>
       </c>
-      <c r="G177" s="2" t="n">
+      <c r="G177" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A177) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H177" s="2" t="n">
+      <c r="H177" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B177)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I177" s="2" t="n">
+      <c r="I177" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C177), ISNUMBER(D177), C177&lt;=D177)</f>
         <v>1</v>
       </c>
@@ -23531,15 +23594,15 @@
       <c r="F178" s="24" t="n">
         <v>0.75</v>
       </c>
-      <c r="G178" s="2" t="n">
+      <c r="G178" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A178) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H178" s="2" t="n">
+      <c r="H178" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B178)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I178" s="2" t="n">
+      <c r="I178" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C178), ISNUMBER(D178), C178&lt;=D178)</f>
         <v>1</v>
       </c>
@@ -23563,15 +23626,15 @@
       <c r="F179" s="24" t="n">
         <v>0.25</v>
       </c>
-      <c r="G179" s="2" t="n">
+      <c r="G179" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A179) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H179" s="2" t="n">
+      <c r="H179" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B179)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I179" s="2" t="n">
+      <c r="I179" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C179), ISNUMBER(D179), C179&lt;=D179)</f>
         <v>1</v>
       </c>
@@ -23595,15 +23658,15 @@
       <c r="F180" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G180" s="2" t="n">
+      <c r="G180" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A180) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H180" s="2" t="n">
+      <c r="H180" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B180)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I180" s="2" t="n">
+      <c r="I180" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C180), ISNUMBER(D180), C180&lt;=D180)</f>
         <v>1</v>
       </c>
@@ -23627,15 +23690,15 @@
       <c r="F181" s="24" t="n">
         <v>4.5</v>
       </c>
-      <c r="G181" s="2" t="n">
+      <c r="G181" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A181) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H181" s="2" t="n">
+      <c r="H181" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B181)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I181" s="2" t="n">
+      <c r="I181" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C181), ISNUMBER(D181), C181&lt;=D181)</f>
         <v>1</v>
       </c>
@@ -23659,15 +23722,15 @@
       <c r="F182" s="24" t="n">
         <v>0.5</v>
       </c>
-      <c r="G182" s="2" t="n">
+      <c r="G182" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A182) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H182" s="2" t="n">
+      <c r="H182" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B182)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I182" s="2" t="n">
+      <c r="I182" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C182), ISNUMBER(D182), C182&lt;=D182)</f>
         <v>1</v>
       </c>
@@ -23691,15 +23754,15 @@
       <c r="F183" s="24" t="n">
         <v>0.75</v>
       </c>
-      <c r="G183" s="2" t="n">
+      <c r="G183" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A183) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H183" s="2" t="n">
+      <c r="H183" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B183)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I183" s="2" t="n">
+      <c r="I183" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C183), ISNUMBER(D183), C183&lt;=D183)</f>
         <v>1</v>
       </c>
@@ -23723,15 +23786,15 @@
       <c r="F184" s="24" t="n">
         <v>3.75</v>
       </c>
-      <c r="G184" s="2" t="n">
+      <c r="G184" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A184) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H184" s="2" t="n">
+      <c r="H184" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B184)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I184" s="2" t="n">
+      <c r="I184" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C184), ISNUMBER(D184), C184&lt;=D184)</f>
         <v>1</v>
       </c>
@@ -23755,15 +23818,15 @@
       <c r="F185" s="24" t="n">
         <v>0.5</v>
       </c>
-      <c r="G185" s="2" t="n">
+      <c r="G185" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A185) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H185" s="2" t="n">
+      <c r="H185" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B185)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I185" s="2" t="n">
+      <c r="I185" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C185), ISNUMBER(D185), C185&lt;=D185)</f>
         <v>1</v>
       </c>
@@ -23787,15 +23850,15 @@
       <c r="F186" s="24" t="n">
         <v>1.25</v>
       </c>
-      <c r="G186" s="2" t="n">
+      <c r="G186" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A186) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H186" s="2" t="n">
+      <c r="H186" s="2" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$637,B186)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I186" s="2" t="n">
+      <c r="I186" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C186), ISNUMBER(D186), C186&lt;=D186)</f>
         <v>1</v>
       </c>
@@ -23830,7 +23893,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="E73:F157 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24225,7 +24288,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="E73:F157 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24684,7 +24747,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="E73:F157 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25079,7 +25142,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="E73:F157 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25276,7 +25339,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E73:F157 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/32-PM-SA-multi/32-PM-SA-multi.xlsx
+++ b/ampl-data-input-excel/32-PM-SA-multi/32-PM-SA-multi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,13 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1071,7 +1071,7 @@
     <numFmt numFmtId="168" formatCode="0.0000"/>
     <numFmt numFmtId="169" formatCode="0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1118,11 +1118,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1339,7 +1334,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1387,7 +1382,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2363,7 +2358,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -14025,7 +14020,7 @@
   </sheetPr>
   <dimension ref="A1:L209"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -14529,7 +14524,7 @@
         <f aca="false">VLOOKUP(B14, task!A$2:I$300, 3, 0)</f>
         <v>46021</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="29" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="27" t="n">
@@ -14708,10 +14703,10 @@
         <f aca="false">VLOOKUP(B19, task!A$2:I$300, 3, 0)</f>
         <v>45834</v>
       </c>
-      <c r="E19" s="29" t="n">
+      <c r="E19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="29" t="n">
+      <c r="F19" s="1" t="n">
         <v>1.75</v>
       </c>
       <c r="G19" s="2" t="b">

--- a/ampl-data-input-excel/32-PM-SA-multi/32-PM-SA-multi.xlsx
+++ b/ampl-data-input-excel/32-PM-SA-multi/32-PM-SA-multi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="267">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -951,10 +951,16 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
+    <t xml:space="preserve">With ubday</t>
+  </si>
+  <si>
     <t xml:space="preserve">Last day</t>
   </si>
   <si>
     <t xml:space="preserve">highs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">Width</t>
@@ -1774,10 +1780,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1785,8 +1791,8 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="15.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="14.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="15" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1799,8 +1805,11 @@
       <c r="C1" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="13" t="s">
         <v>229</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1811,9 +1820,12 @@
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="40" t="n">
+        <v>231</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" s="40" t="n">
         <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C900))</f>
         <v>46391</v>
       </c>
@@ -1852,13 +1864,13 @@
         <v>227</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>17</v>
@@ -1867,19 +1879,19 @@
         <v>18</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1897,14 +1909,14 @@
         <v>45657</v>
       </c>
       <c r="F2" s="31" t="n">
-        <f aca="false">misc!D2</f>
+        <f aca="false">misc!E2</f>
         <v>46391</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0.3</v>
@@ -1914,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="42" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1948,16 +1960,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>17</v>
@@ -1966,19 +1978,19 @@
         <v>18</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1996,14 +2008,14 @@
         <v>45657</v>
       </c>
       <c r="F2" s="31" t="n">
-        <f aca="false">misc!D2</f>
+        <f aca="false">misc!E2</f>
         <v>46391</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0.3</v>
@@ -2013,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="42" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -2047,16 +2059,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>17</v>
@@ -2065,13 +2077,13 @@
         <v>18</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2089,7 +2101,7 @@
         <v>45657</v>
       </c>
       <c r="F2" s="31" t="n">
-        <f aca="false">misc!D2</f>
+        <f aca="false">misc!E2</f>
         <v>46391</v>
       </c>
       <c r="G2" s="7" t="n">
@@ -2100,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="42" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -2137,25 +2149,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2169,7 +2181,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F2" s="7" t="n">
         <v>0.9</v>
@@ -2208,25 +2220,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2240,10 +2252,10 @@
         <v>150</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>4</v>
@@ -2281,34 +2293,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2322,16 +2334,16 @@
         <v>150</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>0.2</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0.5</v>
@@ -2358,7 +2370,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2370,19 +2382,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/ampl-data-input-excel/32-PM-SA-multi/32-PM-SA-multi.xlsx
+++ b/ampl-data-input-excel/32-PM-SA-multi/32-PM-SA-multi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,14 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="img" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgh" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgt" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgs" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgw" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imgb" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imge" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -262,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="268">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -963,6 +964,9 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
+    <t xml:space="preserve">For all charts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Width</t>
   </si>
   <si>
@@ -972,6 +976,12 @@
     <t xml:space="preserve">Dpi</t>
   </si>
   <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bar:color</t>
   </si>
   <si>
@@ -979,12 +989,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bar:alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is End OK?</t>
   </si>
   <si>
     <t xml:space="preserve">#2ca02c</t>
@@ -1223,7 +1227,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1389,10 +1393,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1782,7 +1782,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1846,31 +1846,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="23.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>17</v>
@@ -1878,65 +1877,47 @@
       <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="H1" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="J1" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="31" t="n">
         <f aca="false">misc!A2+1</f>
         <v>45657</v>
       </c>
       <c r="F2" s="31" t="n">
-        <f aca="false">misc!E2</f>
-        <v>46391</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="42" t="b">
+        <f aca="false">E2+20</f>
+        <v>45677</v>
+      </c>
+      <c r="G2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="42" t="b">
+      <c r="H2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1946,87 +1927,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="J1" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <f aca="false">misc!A2+1</f>
-        <v>45657</v>
-      </c>
-      <c r="F2" s="31" t="n">
-        <f aca="false">misc!E2</f>
-        <v>46391</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="I2" s="7" t="n">
         <v>0.3</v>
-      </c>
-      <c r="J2" s="42" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="42" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2045,79 +1981,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="I1" s="39" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <f aca="false">misc!A2+1</f>
-        <v>45657</v>
-      </c>
-      <c r="F2" s="31" t="n">
-        <f aca="false">misc!E2</f>
-        <v>46391</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="42" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="42" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M21" s="1"/>
+        <v>0.3</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2135,16 +2034,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2152,43 +2051,16 @@
         <v>247</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="F2" s="7" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="7" t="n">
         <v>0.6</v>
       </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2206,59 +2078,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
       <c r="C2" s="7" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -2277,79 +2131,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
+      <c r="D2" s="7" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="7" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2368,46 +2184,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.86"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="7" t="n">
         <v>0.6</v>
       </c>
     </row>

--- a/ampl-data-input-excel/32-PM-SA-multi/32-PM-SA-multi.xlsx
+++ b/ampl-data-input-excel/32-PM-SA-multi/32-PM-SA-multi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -952,7 +952,7 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">With ubday</t>
+    <t xml:space="preserve">AMPL model</t>
   </si>
   <si>
     <t xml:space="preserve">Last day</t>
@@ -961,7 +961,7 @@
     <t xml:space="preserve">highs</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
+    <t xml:space="preserve">solid</t>
   </si>
   <si>
     <t xml:space="preserve">For all charts</t>
@@ -1582,7 +1582,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="D1:D2 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1782,8 +1782,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1849,7 +1849,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="D1:D2 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1930,7 +1930,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1984,7 +1984,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2037,7 +2037,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D1:D2 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2081,7 +2081,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2134,7 +2134,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2187,7 +2187,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2259,8 +2259,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="D1:D2 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2301,7 +2301,7 @@
   <dimension ref="A1:L186"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E97" activeCellId="0" sqref="E97"/>
+      <selection pane="topLeft" activeCell="E97" activeCellId="1" sqref="D1:D2 E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10897,7 +10897,7 @@
   <dimension ref="A1:D186"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C97" activeCellId="0" sqref="C97"/>
+      <selection pane="topLeft" activeCell="C97" activeCellId="1" sqref="D1:D2 C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13904,7 +13904,7 @@
   <dimension ref="A1:L209"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="1" sqref="D1:D2 E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20800,7 +20800,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21259,7 +21259,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21456,7 +21456,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21821,7 +21821,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E73" activeCellId="0" sqref="E73"/>
+      <selection pane="topLeft" activeCell="E73" activeCellId="1" sqref="D1:D2 E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25427,7 +25427,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="1" sqref="D1:D2 F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
